--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -457,17 +457,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Broj oporavljenih osoba</t>
+          <t>Oporavljeni</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Broj testiranih dnevno</t>
+          <t>Testirani</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Broj smrtnih slučajeva</t>
+          <t>Smrtni sl.</t>
         </is>
       </c>
     </row>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>stringency_index</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>population</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Oporavljeni</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Testirani</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Smrtni sl.</t>
         </is>
@@ -484,11 +489,14 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,11 +511,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -522,11 +533,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -541,11 +555,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -560,11 +577,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>11.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -579,11 +599,14 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>29.17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -598,11 +621,14 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>40.28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -617,11 +643,14 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
+        <v>40.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -636,11 +665,14 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>40.28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -655,11 +687,14 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>40.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -674,11 +709,14 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>40.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -693,11 +731,14 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>45.83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -712,11 +753,14 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
+        <v>70.83</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -731,11 +775,14 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>77.78</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -750,11 +797,14 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>77.78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -769,11 +819,14 @@
         <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -788,11 +841,14 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -807,11 +863,14 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -826,11 +885,14 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -845,11 +907,14 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -864,11 +929,14 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -883,11 +951,14 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -902,11 +973,14 @@
         <v>46</v>
       </c>
       <c r="D24" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -921,11 +995,14 @@
         <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -940,11 +1017,14 @@
         <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -959,11 +1039,14 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -978,11 +1061,14 @@
         <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -997,11 +1083,14 @@
         <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1016,11 +1105,14 @@
         <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
+        <v>89.81</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,15 +1129,18 @@
         <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E31" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>645</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1062,15 +1157,18 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E32" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>590</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1087,15 +1185,18 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E33" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>602</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1112,15 +1213,18 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E34" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>609</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1137,15 +1241,18 @@
         <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E35" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>590</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,15 +1269,18 @@
         <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E36" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>478</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1187,15 +1297,18 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>3280815</v>
+        <v>89.81</v>
       </c>
       <c r="E37" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>874</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,15 +1325,18 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E38" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>1028</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,15 +1353,18 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E39" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>782</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1262,15 +1381,18 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E40" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>794</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,15 +1409,18 @@
         <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E41" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>637</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,15 +1437,18 @@
         <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E42" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F42" t="n">
         <v>236</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>795</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1337,15 +1465,18 @@
         <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E43" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F43" t="n">
         <v>17</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>932</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,15 +1493,18 @@
         <v>57</v>
       </c>
       <c r="D44" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E44" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F44" t="n">
         <v>24</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>1404</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1387,15 +1521,18 @@
         <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E45" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F45" t="n">
         <v>43</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>1008</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1412,15 +1549,18 @@
         <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E46" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F46" t="n">
         <v>18</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>1117</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,15 +1577,18 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E47" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F47" t="n">
         <v>9</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>950</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,15 +1605,18 @@
         <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E48" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F48" t="n">
         <v>34</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>540</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1487,15 +1633,18 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E49" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F49" t="n">
         <v>56</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>837</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1512,15 +1661,18 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E50" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F50" t="n">
         <v>23</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>930</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1537,15 +1689,18 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>3280815</v>
+        <v>92.59</v>
       </c>
       <c r="E51" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F51" t="n">
         <v>25</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>1307</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,15 +1717,18 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E52" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F52" t="n">
         <v>53</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>1336</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1587,15 +1745,18 @@
         <v>65</v>
       </c>
       <c r="D53" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E53" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F53" t="n">
         <v>54</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1908</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1612,15 +1773,18 @@
         <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E54" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F54" t="n">
         <v>32</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>1154</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1637,15 +1801,18 @@
         <v>49</v>
       </c>
       <c r="D55" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E55" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F55" t="n">
         <v>35</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>992</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1662,15 +1829,18 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E56" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F56" t="n">
         <v>23</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>781</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1687,15 +1857,18 @@
         <v>92</v>
       </c>
       <c r="D57" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E57" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F57" t="n">
         <v>28</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>1527</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1712,15 +1885,18 @@
         <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E58" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F58" t="n">
         <v>17</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1663</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1737,15 +1913,18 @@
         <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E59" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F59" t="n">
         <v>28</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>1385</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1762,15 +1941,18 @@
         <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E60" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F60" t="n">
         <v>24</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>605</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1787,15 +1969,18 @@
         <v>18</v>
       </c>
       <c r="D61" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E61" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F61" t="n">
         <v>46</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>1145</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1812,15 +1997,18 @@
         <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E62" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F62" t="n">
         <v>30</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>450</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1837,15 +2025,18 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E63" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F63" t="n">
         <v>56</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>918</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,15 +2053,18 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E64" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F64" t="n">
         <v>17</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>1196</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1887,15 +2081,18 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E65" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F65" t="n">
         <v>26</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>1695</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1912,15 +2109,18 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E66" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F66" t="n">
         <v>6</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>604</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1937,15 +2137,18 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E67" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F67" t="n">
         <v>99</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>1198</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1962,15 +2165,18 @@
         <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>3280815</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="E68" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F68" t="n">
         <v>47</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>1293</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1987,15 +2193,18 @@
         <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>3280815</v>
+        <v>81.48</v>
       </c>
       <c r="E69" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F69" t="n">
         <v>8</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>1036</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2012,15 +2221,18 @@
         <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>3280815</v>
+        <v>81.48</v>
       </c>
       <c r="E70" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F70" t="n">
         <v>54</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>1133</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2037,15 +2249,18 @@
         <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>3280815</v>
+        <v>81.48</v>
       </c>
       <c r="E71" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F71" t="n">
         <v>60</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>929</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2062,15 +2277,18 @@
         <v>37</v>
       </c>
       <c r="D72" t="n">
-        <v>3280815</v>
+        <v>79.63</v>
       </c>
       <c r="E72" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F72" t="n">
         <v>44</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>1430</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2087,15 +2305,18 @@
         <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E73" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F73" t="n">
         <v>64</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>1339</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2112,15 +2333,18 @@
         <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E74" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F74" t="n">
         <v>19</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>1379</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2137,15 +2361,18 @@
         <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E75" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F75" t="n">
         <v>81</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>1304</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2162,15 +2389,18 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E76" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F76" t="n">
         <v>28</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>1488</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2187,15 +2417,18 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E77" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F77" t="n">
         <v>58</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>2668</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,15 +2445,18 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>3280815</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="E78" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F78" t="n">
         <v>35</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>1636</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2237,15 +2473,18 @@
         <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E79" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F79" t="n">
         <v>39</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>1373</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2262,15 +2501,18 @@
         <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E80" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F80" t="n">
         <v>18</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>510</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2287,15 +2529,18 @@
         <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E81" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F81" t="n">
         <v>48</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>1187</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2312,15 +2557,18 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E82" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F82" t="n">
         <v>18</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>838</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2337,15 +2585,18 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E83" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F83" t="n">
         <v>16</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>402</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2362,15 +2613,18 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E84" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F84" t="n">
         <v>25</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>594</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2387,15 +2641,18 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E85" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F85" t="n">
         <v>23</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>583</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2412,15 +2669,18 @@
         <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>3280815</v>
+        <v>71.3</v>
       </c>
       <c r="E86" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F86" t="n">
         <v>37</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>1456</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2437,15 +2697,18 @@
         <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>3280815</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E87" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F87" t="n">
         <v>22</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>1029</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,15 +2725,18 @@
         <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>3280815</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E88" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F88" t="n">
         <v>28</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>1027</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2487,15 +2753,18 @@
         <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>3280815</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E89" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F89" t="n">
         <v>31</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>597</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2512,15 +2781,18 @@
         <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E90" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F90" t="n">
         <v>26</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>680</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,15 +2809,18 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E91" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F91" t="n">
         <v>22</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>822</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2562,15 +2837,18 @@
         <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E92" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F92" t="n">
         <v>29</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>1230</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2587,15 +2865,18 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E93" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F93" t="n">
         <v>12</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>754</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2612,15 +2893,18 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E94" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F94" t="n">
         <v>17</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>948</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2637,11 +2921,14 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
+        <v>54.63</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2656,11 +2943,14 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E96" t="inlineStr"/>
+        <v>54.63</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2675,15 +2965,18 @@
         <v>98</v>
       </c>
       <c r="D97" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E97" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F97" t="n">
         <v>55</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>2166</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,15 +2993,18 @@
         <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E98" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F98" t="n">
         <v>26</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>694</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,15 +3021,18 @@
         <v>47</v>
       </c>
       <c r="D99" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E99" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F99" t="n">
         <v>14</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>865</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,15 +3049,18 @@
         <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E100" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F100" t="n">
         <v>37</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>1000</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2775,15 +3077,18 @@
         <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>3280815</v>
+        <v>54.63</v>
       </c>
       <c r="E101" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F101" t="n">
         <v>19</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>792</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2800,11 +3105,14 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2819,11 +3127,14 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E103" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2838,15 +3149,18 @@
         <v>147</v>
       </c>
       <c r="D104" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E104" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F104" t="n">
         <v>43</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>2323</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2863,15 +3177,18 @@
         <v>45</v>
       </c>
       <c r="D105" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E105" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F105" t="n">
         <v>16</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>815</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2888,15 +3205,18 @@
         <v>56</v>
       </c>
       <c r="D106" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E106" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F106" t="n">
         <v>19</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>770</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2913,15 +3233,18 @@
         <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E107" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F107" t="n">
         <v>22</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>1035</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,15 +3261,18 @@
         <v>99</v>
       </c>
       <c r="D108" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E108" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F108" t="n">
         <v>22</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>916</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2963,11 +3289,14 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E109" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2982,11 +3311,14 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E110" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3001,15 +3333,18 @@
         <v>252</v>
       </c>
       <c r="D111" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E111" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F111" t="n">
         <v>29</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>2604</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3026,15 +3361,18 @@
         <v>63</v>
       </c>
       <c r="D112" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E112" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F112" t="n">
         <v>15</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>1324</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,15 +3389,18 @@
         <v>88</v>
       </c>
       <c r="D113" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E113" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F113" t="n">
         <v>12</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>1315</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,15 +3417,18 @@
         <v>120</v>
       </c>
       <c r="D114" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E114" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F114" t="n">
         <v>25</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>1145</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3101,15 +3445,18 @@
         <v>139</v>
       </c>
       <c r="D115" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E115" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F115" t="n">
         <v>16</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>1130</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3126,11 +3473,14 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E116" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3145,11 +3495,14 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E117" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3164,15 +3517,18 @@
         <v>390</v>
       </c>
       <c r="D118" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E118" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F118" t="n">
         <v>28</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>3244</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3189,15 +3545,18 @@
         <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E119" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F119" t="n">
         <v>36</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>1177</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3214,15 +3573,18 @@
         <v>153</v>
       </c>
       <c r="D120" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E120" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F120" t="n">
         <v>30</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>1157</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3239,15 +3601,18 @@
         <v>182</v>
       </c>
       <c r="D121" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E121" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F121" t="n">
         <v>93</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>1759</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,15 +3629,18 @@
         <v>174</v>
       </c>
       <c r="D122" t="n">
-        <v>3280815</v>
+        <v>51.85</v>
       </c>
       <c r="E122" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F122" t="n">
         <v>25</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>1851</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3289,11 +3657,14 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E123" t="inlineStr"/>
+        <v>51.85</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3308,11 +3679,14 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3327,15 +3701,18 @@
         <v>496</v>
       </c>
       <c r="D125" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E125" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F125" t="n">
         <v>48</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>3650</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3352,15 +3729,18 @@
         <v>163</v>
       </c>
       <c r="D126" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E126" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F126" t="n">
         <v>95</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1329</v>
       </c>
-      <c r="G126" t="n">
+      <c r="H126" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3377,15 +3757,18 @@
         <v>248</v>
       </c>
       <c r="D127" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E127" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F127" t="n">
         <v>76</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>1628</v>
       </c>
-      <c r="G127" t="n">
+      <c r="H127" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3402,15 +3785,18 @@
         <v>217</v>
       </c>
       <c r="D128" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E128" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F128" t="n">
         <v>46</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>1871</v>
       </c>
-      <c r="G128" t="n">
+      <c r="H128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3427,15 +3813,18 @@
         <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E129" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F129" t="n">
         <v>222</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>1796</v>
       </c>
-      <c r="G129" t="n">
+      <c r="H129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3452,11 +3841,14 @@
         <v>317</v>
       </c>
       <c r="D130" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3471,11 +3863,14 @@
         <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3490,15 +3885,18 @@
         <v>104</v>
       </c>
       <c r="D132" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E132" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F132" t="n">
         <v>142</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3526</v>
       </c>
-      <c r="G132" t="n">
+      <c r="H132" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3515,11 +3913,14 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3534,15 +3935,18 @@
         <v>430</v>
       </c>
       <c r="D134" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E134" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F134" t="n">
         <v>156</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>2808</v>
       </c>
-      <c r="G134" t="n">
+      <c r="H134" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3559,11 +3963,14 @@
         <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3578,15 +3985,18 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E136" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F136" t="n">
         <v>277</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>3558</v>
       </c>
-      <c r="G136" t="n">
+      <c r="H136" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3603,11 +4013,14 @@
         <v>253</v>
       </c>
       <c r="D137" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3622,11 +4035,14 @@
         <v>179</v>
       </c>
       <c r="D138" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3641,11 +4057,14 @@
         <v>139</v>
       </c>
       <c r="D139" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
+        <v>56.48</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3660,15 +4079,18 @@
         <v>308</v>
       </c>
       <c r="D140" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E140" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F140" t="n">
         <v>390</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>6142</v>
       </c>
-      <c r="G140" t="n">
+      <c r="H140" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3685,15 +4107,18 @@
         <v>328</v>
       </c>
       <c r="D141" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E141" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F141" t="n">
         <v>157</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>1474</v>
       </c>
-      <c r="G141" t="n">
+      <c r="H141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3710,15 +4135,18 @@
         <v>347</v>
       </c>
       <c r="D142" t="n">
-        <v>3280815</v>
+        <v>56.48</v>
       </c>
       <c r="E142" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F142" t="n">
         <v>208</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>1784</v>
       </c>
-      <c r="G142" t="n">
+      <c r="H142" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3735,15 +4163,18 @@
         <v>305</v>
       </c>
       <c r="D143" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E143" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F143" t="n">
         <v>188</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>1631</v>
       </c>
-      <c r="G143" t="n">
+      <c r="H143" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3760,11 +4191,14 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E144" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3779,11 +4213,14 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E145" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3798,15 +4235,18 @@
         <v>731</v>
       </c>
       <c r="D146" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E146" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F146" t="n">
         <v>375</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>3713</v>
       </c>
-      <c r="G146" t="n">
+      <c r="H146" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3823,15 +4263,18 @@
         <v>268</v>
       </c>
       <c r="D147" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E147" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F147" t="n">
         <v>290</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>1518</v>
       </c>
-      <c r="G147" t="n">
+      <c r="H147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3848,15 +4291,18 @@
         <v>361</v>
       </c>
       <c r="D148" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E148" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F148" t="n">
         <v>221</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>1596</v>
       </c>
-      <c r="G148" t="n">
+      <c r="H148" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3873,15 +4319,18 @@
         <v>317</v>
       </c>
       <c r="D149" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E149" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F149" t="n">
         <v>145</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>1844</v>
       </c>
-      <c r="G149" t="n">
+      <c r="H149" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3898,15 +4347,18 @@
         <v>432</v>
       </c>
       <c r="D150" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E150" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F150" t="n">
         <v>373</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>1739</v>
       </c>
-      <c r="G150" t="n">
+      <c r="H150" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3923,11 +4375,14 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E151" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3942,11 +4397,14 @@
         <v>420</v>
       </c>
       <c r="D152" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E152" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3961,15 +4419,18 @@
         <v>166</v>
       </c>
       <c r="D153" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E153" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F153" t="n">
         <v>400</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3061</v>
       </c>
-      <c r="G153" t="n">
+      <c r="H153" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3986,15 +4447,18 @@
         <v>394</v>
       </c>
       <c r="D154" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E154" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F154" t="n">
         <v>233</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>1569</v>
       </c>
-      <c r="G154" t="n">
+      <c r="H154" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4011,15 +4475,18 @@
         <v>282</v>
       </c>
       <c r="D155" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E155" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F155" t="n">
         <v>247</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>1586</v>
       </c>
-      <c r="G155" t="n">
+      <c r="H155" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4036,15 +4503,18 @@
         <v>258</v>
       </c>
       <c r="D156" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E156" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F156" t="n">
         <v>203</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>1464</v>
       </c>
-      <c r="G156" t="n">
+      <c r="H156" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4061,15 +4531,18 @@
         <v>291</v>
       </c>
       <c r="D157" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E157" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F157" t="n">
         <v>331</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>1067</v>
       </c>
-      <c r="G157" t="n">
+      <c r="H157" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4086,11 +4559,14 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E158" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4105,11 +4581,14 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E159" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4124,15 +4603,18 @@
         <v>811</v>
       </c>
       <c r="D160" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E160" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F160" t="n">
         <v>786</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>4256</v>
       </c>
-      <c r="G160" t="n">
+      <c r="H160" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4149,15 +4631,18 @@
         <v>210</v>
       </c>
       <c r="D161" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E161" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F161" t="n">
         <v>252</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>2130</v>
       </c>
-      <c r="G161" t="n">
+      <c r="H161" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4174,15 +4659,18 @@
         <v>253</v>
       </c>
       <c r="D162" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E162" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F162" t="n">
         <v>416</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>1571</v>
       </c>
-      <c r="G162" t="n">
+      <c r="H162" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4199,15 +4687,18 @@
         <v>223</v>
       </c>
       <c r="D163" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E163" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F163" t="n">
         <v>329</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>1539</v>
       </c>
-      <c r="G163" t="n">
+      <c r="H163" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4224,15 +4715,18 @@
         <v>351</v>
       </c>
       <c r="D164" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E164" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F164" t="n">
         <v>188</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>2027</v>
       </c>
-      <c r="G164" t="n">
+      <c r="H164" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4249,11 +4743,14 @@
         <v>266</v>
       </c>
       <c r="D165" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E165" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4268,11 +4765,14 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E166" t="inlineStr"/>
+        <v>59.26</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4287,15 +4787,18 @@
         <v>310</v>
       </c>
       <c r="D167" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E167" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F167" t="n">
         <v>512</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>3534</v>
       </c>
-      <c r="G167" t="n">
+      <c r="H167" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4312,15 +4815,18 @@
         <v>240</v>
       </c>
       <c r="D168" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E168" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F168" t="n">
         <v>423</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>1734</v>
       </c>
-      <c r="G168" t="n">
+      <c r="H168" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4337,15 +4843,18 @@
         <v>340</v>
       </c>
       <c r="D169" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E169" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F169" t="n">
         <v>432</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>2092</v>
       </c>
-      <c r="G169" t="n">
+      <c r="H169" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4362,15 +4871,18 @@
         <v>338</v>
       </c>
       <c r="D170" t="n">
-        <v>3280815</v>
+        <v>59.26</v>
       </c>
       <c r="E170" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F170" t="n">
         <v>170</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>1888</v>
       </c>
-      <c r="G170" t="n">
+      <c r="H170" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4387,11 +4899,14 @@
         <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E171" t="inlineStr"/>
+        <v>53.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4406,11 +4921,14 @@
         <v>319</v>
       </c>
       <c r="D172" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
+        <v>53.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4425,11 +4943,14 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
+        <v>53.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4444,15 +4965,18 @@
         <v>314</v>
       </c>
       <c r="D174" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E174" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F174" t="n">
         <v>980</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>6046</v>
       </c>
-      <c r="G174" t="n">
+      <c r="H174" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4469,15 +4993,18 @@
         <v>297</v>
       </c>
       <c r="D175" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E175" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F175" t="n">
         <v>220</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>1971</v>
       </c>
-      <c r="G175" t="n">
+      <c r="H175" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4494,15 +5021,18 @@
         <v>283</v>
       </c>
       <c r="D176" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E176" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F176" t="n">
         <v>255</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>1774</v>
       </c>
-      <c r="G176" t="n">
+      <c r="H176" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4519,15 +5049,18 @@
         <v>311</v>
       </c>
       <c r="D177" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E177" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F177" t="n">
         <v>144</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>1938</v>
       </c>
-      <c r="G177" t="n">
+      <c r="H177" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4544,15 +5077,18 @@
         <v>294</v>
       </c>
       <c r="D178" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E178" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F178" t="n">
         <v>253</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>1900</v>
       </c>
-      <c r="G178" t="n">
+      <c r="H178" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4569,15 +5105,18 @@
         <v>336</v>
       </c>
       <c r="D179" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E179" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F179" t="n">
         <v>125</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>1484</v>
       </c>
-      <c r="G179" t="n">
+      <c r="H179" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4594,15 +5133,18 @@
         <v>243</v>
       </c>
       <c r="D180" t="n">
-        <v>3280815</v>
+        <v>53.7</v>
       </c>
       <c r="E180" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F180" t="n">
         <v>110</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>1151</v>
       </c>
-      <c r="G180" t="n">
+      <c r="H180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4619,15 +5161,18 @@
         <v>171</v>
       </c>
       <c r="D181" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E181" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F181" t="n">
         <v>127</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>1407</v>
       </c>
-      <c r="G181" t="n">
+      <c r="H181" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4644,15 +5189,18 @@
         <v>270</v>
       </c>
       <c r="D182" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E182" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F182" t="n">
         <v>340</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>2201</v>
       </c>
-      <c r="G182" t="n">
+      <c r="H182" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4669,15 +5217,18 @@
         <v>283</v>
       </c>
       <c r="D183" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E183" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F183" t="n">
         <v>191</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>2038</v>
       </c>
-      <c r="G183" t="n">
+      <c r="H183" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4694,15 +5245,18 @@
         <v>287</v>
       </c>
       <c r="D184" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E184" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F184" t="n">
         <v>494</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>1785</v>
       </c>
-      <c r="G184" t="n">
+      <c r="H184" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4719,15 +5273,18 @@
         <v>338</v>
       </c>
       <c r="D185" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E185" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F185" t="n">
         <v>356</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>2284</v>
       </c>
-      <c r="G185" t="n">
+      <c r="H185" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4744,15 +5301,18 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
-        <v>3280815</v>
+        <v>46.3</v>
       </c>
       <c r="E186" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F186" t="n">
         <v>160</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>1518</v>
       </c>
-      <c r="G186" t="n">
+      <c r="H186" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4769,11 +5329,14 @@
         <v>121</v>
       </c>
       <c r="D187" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E187" t="inlineStr"/>
+        <v>46.3</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4788,15 +5351,18 @@
         <v>100</v>
       </c>
       <c r="D188" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E188" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F188" t="n">
         <v>194</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>2153</v>
       </c>
-      <c r="G188" t="n">
+      <c r="H188" t="n">
         <v>13</v>
       </c>
     </row>
@@ -4813,15 +5379,18 @@
         <v>301</v>
       </c>
       <c r="D189" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E189" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F189" t="n">
         <v>342</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>2014</v>
       </c>
-      <c r="G189" t="n">
+      <c r="H189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4838,15 +5407,18 @@
         <v>297</v>
       </c>
       <c r="D190" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E190" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F190" t="n">
         <v>36</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>615</v>
       </c>
-      <c r="G190" t="n">
+      <c r="H190" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4863,15 +5435,18 @@
         <v>286</v>
       </c>
       <c r="D191" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E191" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F191" t="n">
         <v>65</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>521</v>
       </c>
-      <c r="G191" t="n">
+      <c r="H191" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4888,15 +5463,18 @@
         <v>290</v>
       </c>
       <c r="D192" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E192" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F192" t="n">
         <v>399</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>582</v>
       </c>
-      <c r="G192" t="n">
+      <c r="H192" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4913,11 +5491,14 @@
         <v>304</v>
       </c>
       <c r="D193" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E193" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4932,11 +5513,14 @@
         <v>327</v>
       </c>
       <c r="D194" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E194" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4951,15 +5535,18 @@
         <v>170</v>
       </c>
       <c r="D195" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E195" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F195" t="n">
         <v>494</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>9086</v>
       </c>
-      <c r="G195" t="n">
+      <c r="H195" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4976,15 +5563,18 @@
         <v>294</v>
       </c>
       <c r="D196" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E196" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F196" t="n">
         <v>535</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>2217</v>
       </c>
-      <c r="G196" t="n">
+      <c r="H196" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5001,15 +5591,18 @@
         <v>282</v>
       </c>
       <c r="D197" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E197" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F197" t="n">
         <v>289</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>2150</v>
       </c>
-      <c r="G197" t="n">
+      <c r="H197" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5026,15 +5619,18 @@
         <v>394</v>
       </c>
       <c r="D198" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E198" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F198" t="n">
         <v>229</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>2349</v>
       </c>
-      <c r="G198" t="n">
+      <c r="H198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5051,15 +5647,18 @@
         <v>292</v>
       </c>
       <c r="D199" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E199" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F199" t="n">
         <v>146</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>2233</v>
       </c>
-      <c r="G199" t="n">
+      <c r="H199" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5076,11 +5675,14 @@
         <v>320</v>
       </c>
       <c r="D200" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E200" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5095,11 +5697,14 @@
         <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E201" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5114,15 +5719,18 @@
         <v>93</v>
       </c>
       <c r="D202" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E202" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F202" t="n">
         <v>744</v>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>4291</v>
       </c>
-      <c r="G202" t="n">
+      <c r="H202" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5139,15 +5747,18 @@
         <v>216</v>
       </c>
       <c r="D203" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E203" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F203" t="n">
         <v>250</v>
       </c>
-      <c r="F203" t="n">
+      <c r="G203" t="n">
         <v>2115</v>
       </c>
-      <c r="G203" t="n">
+      <c r="H203" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5164,15 +5775,18 @@
         <v>344</v>
       </c>
       <c r="D204" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E204" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F204" t="n">
         <v>275</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>2258</v>
       </c>
-      <c r="G204" t="n">
+      <c r="H204" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5189,15 +5803,18 @@
         <v>235</v>
       </c>
       <c r="D205" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E205" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F205" t="n">
         <v>508</v>
       </c>
-      <c r="F205" t="n">
+      <c r="G205" t="n">
         <v>2060</v>
       </c>
-      <c r="G205" t="n">
+      <c r="H205" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5214,15 +5831,18 @@
         <v>248</v>
       </c>
       <c r="D206" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E206" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F206" t="n">
         <v>365</v>
       </c>
-      <c r="F206" t="n">
+      <c r="G206" t="n">
         <v>1971</v>
       </c>
-      <c r="G206" t="n">
+      <c r="H206" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5239,11 +5859,14 @@
         <v>233</v>
       </c>
       <c r="D207" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E207" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5258,11 +5881,14 @@
         <v>123</v>
       </c>
       <c r="D208" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E208" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5277,15 +5903,18 @@
         <v>81</v>
       </c>
       <c r="D209" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E209" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F209" t="n">
         <v>498</v>
       </c>
-      <c r="F209" t="n">
+      <c r="G209" t="n">
         <v>3827</v>
       </c>
-      <c r="G209" t="n">
+      <c r="H209" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5302,15 +5931,18 @@
         <v>225</v>
       </c>
       <c r="D210" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E210" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F210" t="n">
         <v>317</v>
       </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
         <v>2349</v>
       </c>
-      <c r="G210" t="n">
+      <c r="H210" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5327,15 +5959,18 @@
         <v>243</v>
       </c>
       <c r="D211" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E211" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F211" t="n">
         <v>294</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>2081</v>
       </c>
-      <c r="G211" t="n">
+      <c r="H211" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5352,15 +5987,18 @@
         <v>280</v>
       </c>
       <c r="D212" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E212" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F212" t="n">
         <v>331</v>
       </c>
-      <c r="F212" t="n">
+      <c r="G212" t="n">
         <v>2181</v>
       </c>
-      <c r="G212" t="n">
+      <c r="H212" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5377,15 +6015,18 @@
         <v>226</v>
       </c>
       <c r="D213" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E213" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F213" t="n">
         <v>161</v>
       </c>
-      <c r="F213" t="n">
+      <c r="G213" t="n">
         <v>1800</v>
       </c>
-      <c r="G213" t="n">
+      <c r="H213" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5402,11 +6043,14 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E214" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5421,11 +6065,14 @@
         <v>379</v>
       </c>
       <c r="D215" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E215" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5440,15 +6087,18 @@
         <v>95</v>
       </c>
       <c r="D216" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E216" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F216" t="n">
         <v>924</v>
       </c>
-      <c r="F216" t="n">
+      <c r="G216" t="n">
         <v>3764</v>
       </c>
-      <c r="G216" t="n">
+      <c r="H216" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5465,15 +6115,18 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E217" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F217" t="n">
         <v>242</v>
       </c>
-      <c r="F217" t="n">
+      <c r="G217" t="n">
         <v>2185</v>
       </c>
-      <c r="G217" t="n">
+      <c r="H217" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5490,15 +6143,18 @@
         <v>365</v>
       </c>
       <c r="D218" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E218" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F218" t="n">
         <v>340</v>
       </c>
-      <c r="F218" t="n">
+      <c r="G218" t="n">
         <v>2104</v>
       </c>
-      <c r="G218" t="n">
+      <c r="H218" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5515,15 +6171,18 @@
         <v>453</v>
       </c>
       <c r="D219" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E219" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F219" t="n">
         <v>325</v>
       </c>
-      <c r="F219" t="n">
+      <c r="G219" t="n">
         <v>2281</v>
       </c>
-      <c r="G219" t="n">
+      <c r="H219" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5540,15 +6199,18 @@
         <v>389</v>
       </c>
       <c r="D220" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E220" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F220" t="n">
         <v>302</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>2192</v>
       </c>
-      <c r="G220" t="n">
+      <c r="H220" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5565,11 +6227,14 @@
         <v>428</v>
       </c>
       <c r="D221" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E221" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5584,11 +6249,14 @@
         <v>302</v>
       </c>
       <c r="D222" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E222" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5603,15 +6271,18 @@
         <v>190</v>
       </c>
       <c r="D223" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E223" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F223" t="n">
         <v>346</v>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>4900</v>
       </c>
-      <c r="G223" t="n">
+      <c r="H223" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5628,15 +6299,18 @@
         <v>336</v>
       </c>
       <c r="D224" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E224" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F224" t="n">
         <v>190</v>
       </c>
-      <c r="F224" t="n">
+      <c r="G224" t="n">
         <v>2140</v>
       </c>
-      <c r="G224" t="n">
+      <c r="H224" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5653,15 +6327,18 @@
         <v>482</v>
       </c>
       <c r="D225" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E225" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F225" t="n">
         <v>297</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>2511</v>
       </c>
-      <c r="G225" t="n">
+      <c r="H225" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5678,15 +6355,18 @@
         <v>569</v>
       </c>
       <c r="D226" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E226" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F226" t="n">
         <v>282</v>
       </c>
-      <c r="F226" t="n">
+      <c r="G226" t="n">
         <v>2326</v>
       </c>
-      <c r="G226" t="n">
+      <c r="H226" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5703,15 +6383,18 @@
         <v>621</v>
       </c>
       <c r="D227" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E227" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F227" t="n">
         <v>247</v>
       </c>
-      <c r="F227" t="n">
+      <c r="G227" t="n">
         <v>2525</v>
       </c>
-      <c r="G227" t="n">
+      <c r="H227" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5728,11 +6411,14 @@
         <v>716</v>
       </c>
       <c r="D228" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E228" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5747,11 +6433,14 @@
         <v>551</v>
       </c>
       <c r="D229" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E229" t="inlineStr"/>
+        <v>40.74</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5766,15 +6455,18 @@
         <v>549</v>
       </c>
       <c r="D230" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E230" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F230" t="n">
         <v>839</v>
       </c>
-      <c r="F230" t="n">
+      <c r="G230" t="n">
         <v>5529</v>
       </c>
-      <c r="G230" t="n">
+      <c r="H230" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5791,15 +6483,18 @@
         <v>728</v>
       </c>
       <c r="D231" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E231" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F231" t="n">
         <v>118</v>
       </c>
-      <c r="F231" t="n">
+      <c r="G231" t="n">
         <v>5667</v>
       </c>
-      <c r="G231" t="n">
+      <c r="H231" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5816,15 +6511,18 @@
         <v>926</v>
       </c>
       <c r="D232" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E232" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F232" t="n">
         <v>219</v>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>-56</v>
       </c>
-      <c r="G232" t="n">
+      <c r="H232" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5841,15 +6539,18 @@
         <v>999</v>
       </c>
       <c r="D233" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E233" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F233" t="n">
         <v>210</v>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>3056</v>
       </c>
-      <c r="G233" t="n">
+      <c r="H233" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5866,15 +6567,18 @@
         <v>1179</v>
       </c>
       <c r="D234" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E234" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F234" t="n">
         <v>271</v>
       </c>
-      <c r="F234" t="n">
+      <c r="G234" t="n">
         <v>2966</v>
       </c>
-      <c r="G234" t="n">
+      <c r="H234" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5891,15 +6595,18 @@
         <v>1265</v>
       </c>
       <c r="D235" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E235" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F235" t="n">
         <v>108</v>
       </c>
-      <c r="F235" t="n">
+      <c r="G235" t="n">
         <v>2686</v>
       </c>
-      <c r="G235" t="n">
+      <c r="H235" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5916,15 +6623,18 @@
         <v>1135</v>
       </c>
       <c r="D236" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E236" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F236" t="n">
         <v>91</v>
       </c>
-      <c r="F236" t="n">
+      <c r="G236" t="n">
         <v>2504</v>
       </c>
-      <c r="G236" t="n">
+      <c r="H236" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5941,15 +6651,18 @@
         <v>703</v>
       </c>
       <c r="D237" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E237" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F237" t="n">
         <v>83</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>1848</v>
       </c>
-      <c r="G237" t="n">
+      <c r="H237" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5966,15 +6679,18 @@
         <v>1555</v>
       </c>
       <c r="D238" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E238" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F238" t="n">
         <v>361</v>
       </c>
-      <c r="F238" t="n">
+      <c r="G238" t="n">
         <v>3080</v>
       </c>
-      <c r="G238" t="n">
+      <c r="H238" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5991,15 +6707,18 @@
         <v>1586</v>
       </c>
       <c r="D239" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E239" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F239" t="n">
         <v>184</v>
       </c>
-      <c r="F239" t="n">
+      <c r="G239" t="n">
         <v>3717</v>
       </c>
-      <c r="G239" t="n">
+      <c r="H239" t="n">
         <v>36</v>
       </c>
     </row>
@@ -6016,15 +6735,18 @@
         <v>1902</v>
       </c>
       <c r="D240" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E240" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F240" t="n">
         <v>493</v>
       </c>
-      <c r="F240" t="n">
+      <c r="G240" t="n">
         <v>4328</v>
       </c>
-      <c r="G240" t="n">
+      <c r="H240" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6041,15 +6763,18 @@
         <v>1498</v>
       </c>
       <c r="D241" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E241" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F241" t="n">
         <v>290</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>3845</v>
       </c>
-      <c r="G241" t="n">
+      <c r="H241" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6066,15 +6791,18 @@
         <v>1953</v>
       </c>
       <c r="D242" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E242" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F242" t="n">
         <v>213</v>
       </c>
-      <c r="F242" t="n">
+      <c r="G242" t="n">
         <v>3956</v>
       </c>
-      <c r="G242" t="n">
+      <c r="H242" t="n">
         <v>22</v>
       </c>
     </row>
@@ -6091,15 +6819,18 @@
         <v>1415</v>
       </c>
       <c r="D243" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E243" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F243" t="n">
         <v>111</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>2948</v>
       </c>
-      <c r="G243" t="n">
+      <c r="H243" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6116,15 +6847,18 @@
         <v>764</v>
       </c>
       <c r="D244" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E244" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F244" t="n">
         <v>373</v>
       </c>
-      <c r="F244" t="n">
+      <c r="G244" t="n">
         <v>1618</v>
       </c>
-      <c r="G244" t="n">
+      <c r="H244" t="n">
         <v>32</v>
       </c>
     </row>
@@ -6141,15 +6875,18 @@
         <v>1553</v>
       </c>
       <c r="D245" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E245" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F245" t="n">
         <v>589</v>
       </c>
-      <c r="F245" t="n">
+      <c r="G245" t="n">
         <v>2816</v>
       </c>
-      <c r="G245" t="n">
+      <c r="H245" t="n">
         <v>37</v>
       </c>
     </row>
@@ -6166,15 +6903,18 @@
         <v>1776</v>
       </c>
       <c r="D246" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E246" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F246" t="n">
         <v>233</v>
       </c>
-      <c r="F246" t="n">
+      <c r="G246" t="n">
         <v>4456</v>
       </c>
-      <c r="G246" t="n">
+      <c r="H246" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6191,15 +6931,18 @@
         <v>1908</v>
       </c>
       <c r="D247" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E247" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F247" t="n">
         <v>300</v>
       </c>
-      <c r="F247" t="n">
+      <c r="G247" t="n">
         <v>5171</v>
       </c>
-      <c r="G247" t="n">
+      <c r="H247" t="n">
         <v>44</v>
       </c>
     </row>
@@ -6216,15 +6959,18 @@
         <v>1921</v>
       </c>
       <c r="D248" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E248" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F248" t="n">
         <v>281</v>
       </c>
-      <c r="F248" t="n">
+      <c r="G248" t="n">
         <v>4694</v>
       </c>
-      <c r="G248" t="n">
+      <c r="H248" t="n">
         <v>55</v>
       </c>
     </row>
@@ -6241,15 +6987,18 @@
         <v>1785</v>
       </c>
       <c r="D249" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E249" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F249" t="n">
         <v>684</v>
       </c>
-      <c r="F249" t="n">
+      <c r="G249" t="n">
         <v>4442</v>
       </c>
-      <c r="G249" t="n">
+      <c r="H249" t="n">
         <v>33</v>
       </c>
     </row>
@@ -6266,15 +7015,18 @@
         <v>1211</v>
       </c>
       <c r="D250" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E250" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F250" t="n">
         <v>285</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>2797</v>
       </c>
-      <c r="G250" t="n">
+      <c r="H250" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6291,15 +7043,18 @@
         <v>996</v>
       </c>
       <c r="D251" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E251" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F251" t="n">
         <v>283</v>
       </c>
-      <c r="F251" t="n">
+      <c r="G251" t="n">
         <v>2366</v>
       </c>
-      <c r="G251" t="n">
+      <c r="H251" t="n">
         <v>73</v>
       </c>
     </row>
@@ -6316,15 +7071,18 @@
         <v>1605</v>
       </c>
       <c r="D252" t="n">
-        <v>3280815</v>
+        <v>40.74</v>
       </c>
       <c r="E252" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F252" t="n">
         <v>1039</v>
       </c>
-      <c r="F252" t="n">
+      <c r="G252" t="n">
         <v>5375</v>
       </c>
-      <c r="G252" t="n">
+      <c r="H252" t="n">
         <v>46</v>
       </c>
     </row>
@@ -6341,15 +7099,18 @@
         <v>1541</v>
       </c>
       <c r="D253" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E253" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F253" t="n">
         <v>508</v>
       </c>
-      <c r="F253" t="n">
+      <c r="G253" t="n">
         <v>5579</v>
       </c>
-      <c r="G253" t="n">
+      <c r="H253" t="n">
         <v>72</v>
       </c>
     </row>
@@ -6366,15 +7127,18 @@
         <v>1728</v>
       </c>
       <c r="D254" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E254" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F254" t="n">
         <v>921</v>
       </c>
-      <c r="F254" t="n">
+      <c r="G254" t="n">
         <v>5014</v>
       </c>
-      <c r="G254" t="n">
+      <c r="H254" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6391,15 +7155,18 @@
         <v>1332</v>
       </c>
       <c r="D255" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E255" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F255" t="n">
         <v>801</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>3854</v>
       </c>
-      <c r="G255" t="n">
+      <c r="H255" t="n">
         <v>58</v>
       </c>
     </row>
@@ -6416,15 +7183,18 @@
         <v>1275</v>
       </c>
       <c r="D256" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E256" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F256" t="n">
         <v>870</v>
       </c>
-      <c r="F256" t="n">
+      <c r="G256" t="n">
         <v>3773</v>
       </c>
-      <c r="G256" t="n">
+      <c r="H256" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6441,15 +7211,18 @@
         <v>1056</v>
       </c>
       <c r="D257" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E257" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F257" t="n">
         <v>245</v>
       </c>
-      <c r="F257" t="n">
+      <c r="G257" t="n">
         <v>2334</v>
       </c>
-      <c r="G257" t="n">
+      <c r="H257" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6466,15 +7239,18 @@
         <v>733</v>
       </c>
       <c r="D258" t="n">
-        <v>3280815</v>
+        <v>55.56</v>
       </c>
       <c r="E258" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F258" t="n">
         <v>867</v>
       </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
         <v>2390</v>
       </c>
-      <c r="G258" t="n">
+      <c r="H258" t="n">
         <v>75</v>
       </c>
     </row>
@@ -6491,15 +7267,18 @@
         <v>1255</v>
       </c>
       <c r="D259" t="n">
-        <v>3280815</v>
+        <v>55.56</v>
       </c>
       <c r="E259" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F259" t="n">
         <v>2187</v>
       </c>
-      <c r="F259" t="n">
+      <c r="G259" t="n">
         <v>3725</v>
       </c>
-      <c r="G259" t="n">
+      <c r="H259" t="n">
         <v>69</v>
       </c>
     </row>
@@ -6516,15 +7295,18 @@
         <v>1633</v>
       </c>
       <c r="D260" t="n">
-        <v>3280815</v>
+        <v>55.56</v>
       </c>
       <c r="E260" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F260" t="n">
         <v>1226</v>
       </c>
-      <c r="F260" t="n">
+      <c r="G260" t="n">
         <v>4549</v>
       </c>
-      <c r="G260" t="n">
+      <c r="H260" t="n">
         <v>47</v>
       </c>
     </row>
@@ -6541,15 +7323,18 @@
         <v>1180</v>
       </c>
       <c r="D261" t="n">
-        <v>3280815</v>
+        <v>55.56</v>
       </c>
       <c r="E261" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F261" t="n">
         <v>1145</v>
       </c>
-      <c r="F261" t="n">
+      <c r="G261" t="n">
         <v>3614</v>
       </c>
-      <c r="G261" t="n">
+      <c r="H261" t="n">
         <v>64</v>
       </c>
     </row>
@@ -6566,15 +7351,18 @@
         <v>1237</v>
       </c>
       <c r="D262" t="n">
-        <v>3280815</v>
+        <v>55.56</v>
       </c>
       <c r="E262" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F262" t="n">
         <v>1885</v>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>4139</v>
       </c>
-      <c r="G262" t="n">
+      <c r="H262" t="n">
         <v>56</v>
       </c>
     </row>
@@ -6591,15 +7379,18 @@
         <v>1315</v>
       </c>
       <c r="D263" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E263" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F263" t="n">
         <v>877</v>
       </c>
-      <c r="F263" t="n">
+      <c r="G263" t="n">
         <v>3823</v>
       </c>
-      <c r="G263" t="n">
+      <c r="H263" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6616,15 +7407,18 @@
         <v>697</v>
       </c>
       <c r="D264" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E264" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F264" t="n">
         <v>623</v>
       </c>
-      <c r="F264" t="n">
+      <c r="G264" t="n">
         <v>1969</v>
       </c>
-      <c r="G264" t="n">
+      <c r="H264" t="n">
         <v>27</v>
       </c>
     </row>
@@ -6641,15 +7435,18 @@
         <v>547</v>
       </c>
       <c r="D265" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E265" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F265" t="n">
         <v>1344</v>
       </c>
-      <c r="F265" t="n">
+      <c r="G265" t="n">
         <v>1449</v>
       </c>
-      <c r="G265" t="n">
+      <c r="H265" t="n">
         <v>66</v>
       </c>
     </row>
@@ -6666,15 +7463,18 @@
         <v>1186</v>
       </c>
       <c r="D266" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E266" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F266" t="n">
         <v>1765</v>
       </c>
-      <c r="F266" t="n">
+      <c r="G266" t="n">
         <v>3578</v>
       </c>
-      <c r="G266" t="n">
+      <c r="H266" t="n">
         <v>52</v>
       </c>
     </row>
@@ -6691,15 +7491,18 @@
         <v>1589</v>
       </c>
       <c r="D267" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E267" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F267" t="n">
         <v>685</v>
       </c>
-      <c r="F267" t="n">
+      <c r="G267" t="n">
         <v>3929</v>
       </c>
-      <c r="G267" t="n">
+      <c r="H267" t="n">
         <v>35</v>
       </c>
     </row>
@@ -6716,15 +7519,18 @@
         <v>924</v>
       </c>
       <c r="D268" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E268" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F268" t="n">
         <v>570</v>
       </c>
-      <c r="F268" t="n">
+      <c r="G268" t="n">
         <v>2757</v>
       </c>
-      <c r="G268" t="n">
+      <c r="H268" t="n">
         <v>51</v>
       </c>
     </row>
@@ -6741,15 +7547,18 @@
         <v>1179</v>
       </c>
       <c r="D269" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E269" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F269" t="n">
         <v>1221</v>
       </c>
-      <c r="F269" t="n">
+      <c r="G269" t="n">
         <v>3180</v>
       </c>
-      <c r="G269" t="n">
+      <c r="H269" t="n">
         <v>62</v>
       </c>
     </row>
@@ -6766,15 +7575,18 @@
         <v>1279</v>
       </c>
       <c r="D270" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E270" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F270" t="n">
         <v>1067</v>
       </c>
-      <c r="F270" t="n">
+      <c r="G270" t="n">
         <v>3252</v>
       </c>
-      <c r="G270" t="n">
+      <c r="H270" t="n">
         <v>34</v>
       </c>
     </row>
@@ -6791,15 +7603,18 @@
         <v>664</v>
       </c>
       <c r="D271" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E271" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F271" t="n">
         <v>411</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>1698</v>
       </c>
-      <c r="G271" t="n">
+      <c r="H271" t="n">
         <v>44</v>
       </c>
     </row>
@@ -6816,15 +7631,18 @@
         <v>527</v>
       </c>
       <c r="D272" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E272" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F272" t="n">
         <v>1290</v>
       </c>
-      <c r="F272" t="n">
+      <c r="G272" t="n">
         <v>1553</v>
       </c>
-      <c r="G272" t="n">
+      <c r="H272" t="n">
         <v>61</v>
       </c>
     </row>
@@ -6841,15 +7659,18 @@
         <v>1184</v>
       </c>
       <c r="D273" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E273" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F273" t="n">
         <v>955</v>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>3428</v>
       </c>
-      <c r="G273" t="n">
+      <c r="H273" t="n">
         <v>46</v>
       </c>
     </row>
@@ -6866,15 +7687,18 @@
         <v>1293</v>
       </c>
       <c r="D274" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E274" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F274" t="n">
         <v>1243</v>
       </c>
-      <c r="F274" t="n">
+      <c r="G274" t="n">
         <v>3477</v>
       </c>
-      <c r="G274" t="n">
+      <c r="H274" t="n">
         <v>46</v>
       </c>
     </row>
@@ -6891,15 +7715,18 @@
         <v>1161</v>
       </c>
       <c r="D275" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E275" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F275" t="n">
         <v>1083</v>
       </c>
-      <c r="F275" t="n">
+      <c r="G275" t="n">
         <v>3810</v>
       </c>
-      <c r="G275" t="n">
+      <c r="H275" t="n">
         <v>39</v>
       </c>
     </row>
@@ -6916,15 +7743,18 @@
         <v>1254</v>
       </c>
       <c r="D276" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E276" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F276" t="n">
         <v>1495</v>
       </c>
-      <c r="F276" t="n">
+      <c r="G276" t="n">
         <v>4158</v>
       </c>
-      <c r="G276" t="n">
+      <c r="H276" t="n">
         <v>53</v>
       </c>
     </row>
@@ -6941,15 +7771,18 @@
         <v>975</v>
       </c>
       <c r="D277" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E277" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F277" t="n">
         <v>489</v>
       </c>
-      <c r="F277" t="n">
+      <c r="G277" t="n">
         <v>2815</v>
       </c>
-      <c r="G277" t="n">
+      <c r="H277" t="n">
         <v>57</v>
       </c>
     </row>
@@ -6966,15 +7799,18 @@
         <v>739</v>
       </c>
       <c r="D278" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E278" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F278" t="n">
         <v>591</v>
       </c>
-      <c r="F278" t="n">
+      <c r="G278" t="n">
         <v>2262</v>
       </c>
-      <c r="G278" t="n">
+      <c r="H278" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6991,15 +7827,18 @@
         <v>437</v>
       </c>
       <c r="D279" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E279" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F279" t="n">
         <v>863</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>1754</v>
       </c>
-      <c r="G279" t="n">
+      <c r="H279" t="n">
         <v>60</v>
       </c>
     </row>
@@ -7016,15 +7855,18 @@
         <v>1077</v>
       </c>
       <c r="D280" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E280" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F280" t="n">
         <v>722</v>
       </c>
-      <c r="F280" t="n">
+      <c r="G280" t="n">
         <v>3596</v>
       </c>
-      <c r="G280" t="n">
+      <c r="H280" t="n">
         <v>69</v>
       </c>
     </row>
@@ -7041,15 +7883,18 @@
         <v>1296</v>
       </c>
       <c r="D281" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E281" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F281" t="n">
         <v>1112</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>9431</v>
       </c>
-      <c r="G281" t="n">
+      <c r="H281" t="n">
         <v>70</v>
       </c>
     </row>
@@ -7066,15 +7911,18 @@
         <v>1286</v>
       </c>
       <c r="D282" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E282" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F282" t="n">
         <v>1270</v>
       </c>
-      <c r="F282" t="n">
+      <c r="G282" t="n">
         <v>3979</v>
       </c>
-      <c r="G282" t="n">
+      <c r="H282" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7091,15 +7939,18 @@
         <v>940</v>
       </c>
       <c r="D283" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E283" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F283" t="n">
         <v>1141</v>
       </c>
-      <c r="F283" t="n">
+      <c r="G283" t="n">
         <v>3360</v>
       </c>
-      <c r="G283" t="n">
+      <c r="H283" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7116,15 +7967,18 @@
         <v>763</v>
       </c>
       <c r="D284" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E284" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F284" t="n">
         <v>1556</v>
       </c>
-      <c r="F284" t="n">
+      <c r="G284" t="n">
         <v>2941</v>
       </c>
-      <c r="G284" t="n">
+      <c r="H284" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7141,15 +7995,18 @@
         <v>811</v>
       </c>
       <c r="D285" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E285" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F285" t="n">
         <v>469</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>2022</v>
       </c>
-      <c r="G285" t="n">
+      <c r="H285" t="n">
         <v>38</v>
       </c>
     </row>
@@ -7166,15 +8023,18 @@
         <v>344</v>
       </c>
       <c r="D286" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E286" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F286" t="n">
         <v>728</v>
       </c>
-      <c r="F286" t="n">
+      <c r="G286" t="n">
         <v>1286</v>
       </c>
-      <c r="G286" t="n">
+      <c r="H286" t="n">
         <v>55</v>
       </c>
     </row>
@@ -7191,15 +8051,18 @@
         <v>869</v>
       </c>
       <c r="D287" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E287" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F287" t="n">
         <v>1163</v>
       </c>
-      <c r="F287" t="n">
+      <c r="G287" t="n">
         <v>3319</v>
       </c>
-      <c r="G287" t="n">
+      <c r="H287" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7216,15 +8079,18 @@
         <v>902</v>
       </c>
       <c r="D288" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E288" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F288" t="n">
         <v>596</v>
       </c>
-      <c r="F288" t="n">
+      <c r="G288" t="n">
         <v>3555</v>
       </c>
-      <c r="G288" t="n">
+      <c r="H288" t="n">
         <v>54</v>
       </c>
     </row>
@@ -7241,15 +8107,18 @@
         <v>855</v>
       </c>
       <c r="D289" t="n">
-        <v>3280815</v>
+        <v>48.15</v>
       </c>
       <c r="E289" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F289" t="n">
         <v>1250</v>
       </c>
-      <c r="F289" t="n">
+      <c r="G289" t="n">
         <v>3624</v>
       </c>
-      <c r="G289" t="n">
+      <c r="H289" t="n">
         <v>38</v>
       </c>
     </row>
@@ -7266,15 +8135,18 @@
         <v>794</v>
       </c>
       <c r="D290" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E290" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F290" t="n">
         <v>754</v>
       </c>
-      <c r="F290" t="n">
+      <c r="G290" t="n">
         <v>3289</v>
       </c>
-      <c r="G290" t="n">
+      <c r="H290" t="n">
         <v>34</v>
       </c>
     </row>
@@ -7291,15 +8163,18 @@
         <v>643</v>
       </c>
       <c r="D291" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E291" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F291" t="n">
         <v>371</v>
       </c>
-      <c r="F291" t="n">
+      <c r="G291" t="n">
         <v>2840</v>
       </c>
-      <c r="G291" t="n">
+      <c r="H291" t="n">
         <v>42</v>
       </c>
     </row>
@@ -7316,15 +8191,18 @@
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E292" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F292" t="n">
         <v>274</v>
       </c>
-      <c r="F292" t="n">
+      <c r="G292" t="n">
         <v>2375</v>
       </c>
-      <c r="G292" t="n">
+      <c r="H292" t="n">
         <v>28</v>
       </c>
     </row>
@@ -7341,15 +8219,18 @@
         <v>698</v>
       </c>
       <c r="D293" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E293" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F293" t="n">
         <v>654</v>
       </c>
-      <c r="F293" t="n">
+      <c r="G293" t="n">
         <v>1843</v>
       </c>
-      <c r="G293" t="n">
+      <c r="H293" t="n">
         <v>53</v>
       </c>
     </row>
@@ -7366,15 +8247,18 @@
         <v>764</v>
       </c>
       <c r="D294" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E294" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F294" t="n">
         <v>1049</v>
       </c>
-      <c r="F294" t="n">
+      <c r="G294" t="n">
         <v>3339</v>
       </c>
-      <c r="G294" t="n">
+      <c r="H294" t="n">
         <v>86</v>
       </c>
     </row>
@@ -7391,15 +8275,18 @@
         <v>584</v>
       </c>
       <c r="D295" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E295" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F295" t="n">
         <v>552</v>
       </c>
-      <c r="F295" t="n">
+      <c r="G295" t="n">
         <v>3054</v>
       </c>
-      <c r="G295" t="n">
+      <c r="H295" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7416,15 +8303,18 @@
         <v>728</v>
       </c>
       <c r="D296" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E296" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F296" t="n">
         <v>747</v>
       </c>
-      <c r="F296" t="n">
+      <c r="G296" t="n">
         <v>3261</v>
       </c>
-      <c r="G296" t="n">
+      <c r="H296" t="n">
         <v>40</v>
       </c>
     </row>
@@ -7441,15 +8331,18 @@
         <v>593</v>
       </c>
       <c r="D297" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E297" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F297" t="n">
         <v>771</v>
       </c>
-      <c r="F297" t="n">
+      <c r="G297" t="n">
         <v>2958</v>
       </c>
-      <c r="G297" t="n">
+      <c r="H297" t="n">
         <v>23</v>
       </c>
     </row>
@@ -7466,15 +8359,18 @@
         <v>439</v>
       </c>
       <c r="D298" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E298" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F298" t="n">
         <v>457</v>
       </c>
-      <c r="F298" t="n">
+      <c r="G298" t="n">
         <v>2180</v>
       </c>
-      <c r="G298" t="n">
+      <c r="H298" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7491,15 +8387,18 @@
         <v>361</v>
       </c>
       <c r="D299" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E299" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F299" t="n">
         <v>593</v>
       </c>
-      <c r="F299" t="n">
+      <c r="G299" t="n">
         <v>1843</v>
       </c>
-      <c r="G299" t="n">
+      <c r="H299" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7516,15 +8415,18 @@
         <v>220</v>
       </c>
       <c r="D300" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E300" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F300" t="n">
         <v>404</v>
       </c>
-      <c r="F300" t="n">
+      <c r="G300" t="n">
         <v>1775</v>
       </c>
-      <c r="G300" t="n">
+      <c r="H300" t="n">
         <v>23</v>
       </c>
     </row>
@@ -7541,15 +8443,18 @@
         <v>543</v>
       </c>
       <c r="D301" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E301" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F301" t="n">
         <v>681</v>
       </c>
-      <c r="F301" t="n">
+      <c r="G301" t="n">
         <v>3386</v>
       </c>
-      <c r="G301" t="n">
+      <c r="H301" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7566,15 +8471,18 @@
         <v>531</v>
       </c>
       <c r="D302" t="n">
-        <v>3280815</v>
+        <v>42.59</v>
       </c>
       <c r="E302" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F302" t="n">
         <v>423</v>
       </c>
-      <c r="F302" t="n">
+      <c r="G302" t="n">
         <v>2873</v>
       </c>
-      <c r="G302" t="n">
+      <c r="H302" t="n">
         <v>26</v>
       </c>
     </row>
@@ -7591,11 +8499,14 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E303" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7610,11 +8521,14 @@
         <v>1158</v>
       </c>
       <c r="D304" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E304" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7629,11 +8543,14 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E305" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7648,11 +8565,14 @@
         <v>502</v>
       </c>
       <c r="D306" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E306" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7667,11 +8587,14 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E307" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E307" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7686,11 +8609,36 @@
         <v>747</v>
       </c>
       <c r="D308" t="n">
-        <v>3280815</v>
-      </c>
-      <c r="E308" t="inlineStr"/>
+        <v>42.59</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3280815</v>
+      </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>06.01.2021</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>113392</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E309" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stringency_index</t>
+          <t>population</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>Oporavljeni</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Oporavljeni</t>
+          <t>Testirani</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Testirani</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Smrtni sl.</t>
         </is>
@@ -489,14 +484,11 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,14 +503,11 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -533,14 +522,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -555,14 +541,11 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -577,14 +560,11 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -599,14 +579,11 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -621,14 +598,11 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -643,14 +617,11 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -665,14 +636,11 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -687,14 +655,11 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -709,14 +674,11 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -731,14 +693,11 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>45.83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -753,14 +712,11 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>70.83</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -775,14 +731,11 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -797,14 +750,11 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -819,14 +769,11 @@
         <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -841,14 +788,11 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -863,14 +807,11 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -885,14 +826,11 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -907,14 +845,11 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -929,14 +864,11 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -951,14 +883,11 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -973,14 +902,11 @@
         <v>46</v>
       </c>
       <c r="D24" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -995,14 +921,11 @@
         <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1017,14 +940,11 @@
         <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1039,14 +959,11 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1061,14 +978,11 @@
         <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1083,14 +997,11 @@
         <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1105,14 +1016,11 @@
         <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1129,18 +1037,15 @@
         <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E31" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="G31" t="n">
-        <v>645</v>
-      </c>
-      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1157,18 +1062,15 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E32" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="G32" t="n">
-        <v>590</v>
-      </c>
-      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1185,18 +1087,15 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E33" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="G33" t="n">
-        <v>602</v>
-      </c>
-      <c r="H33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1213,18 +1112,15 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E34" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="G34" t="n">
-        <v>609</v>
-      </c>
-      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1241,18 +1137,15 @@
         <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E35" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="G35" t="n">
-        <v>590</v>
-      </c>
-      <c r="H35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1162,15 @@
         <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E36" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="G36" t="n">
-        <v>478</v>
-      </c>
-      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1297,18 +1187,15 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>89.81</v>
+        <v>3280815</v>
       </c>
       <c r="E37" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="G37" t="n">
-        <v>874</v>
-      </c>
-      <c r="H37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1325,18 +1212,15 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E38" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="G38" t="n">
-        <v>1028</v>
-      </c>
-      <c r="H38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,18 +1237,15 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E39" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>782</v>
       </c>
       <c r="G39" t="n">
-        <v>782</v>
-      </c>
-      <c r="H39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,18 +1262,15 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E40" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="G40" t="n">
-        <v>794</v>
-      </c>
-      <c r="H40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1287,15 @@
         <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E41" t="n">
-        <v>3280815</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="G41" t="n">
-        <v>637</v>
-      </c>
-      <c r="H41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1437,18 +1312,15 @@
         <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E42" t="n">
-        <v>3280815</v>
+        <v>236</v>
       </c>
       <c r="F42" t="n">
-        <v>236</v>
+        <v>795</v>
       </c>
       <c r="G42" t="n">
-        <v>795</v>
-      </c>
-      <c r="H42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1465,18 +1337,15 @@
         <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E43" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>932</v>
       </c>
       <c r="G43" t="n">
-        <v>932</v>
-      </c>
-      <c r="H43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1493,18 +1362,15 @@
         <v>57</v>
       </c>
       <c r="D44" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E44" t="n">
-        <v>3280815</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>1404</v>
       </c>
       <c r="G44" t="n">
-        <v>1404</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1521,18 +1387,15 @@
         <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E45" t="n">
-        <v>3280815</v>
+        <v>43</v>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>1008</v>
       </c>
       <c r="G45" t="n">
-        <v>1008</v>
-      </c>
-      <c r="H45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1549,18 +1412,15 @@
         <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E46" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F46" t="n">
-        <v>18</v>
+        <v>1117</v>
       </c>
       <c r="G46" t="n">
-        <v>1117</v>
-      </c>
-      <c r="H46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,18 +1437,15 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E47" t="n">
-        <v>3280815</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>950</v>
       </c>
       <c r="G47" t="n">
-        <v>950</v>
-      </c>
-      <c r="H47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1605,18 +1462,15 @@
         <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E48" t="n">
-        <v>3280815</v>
+        <v>34</v>
       </c>
       <c r="F48" t="n">
-        <v>34</v>
+        <v>540</v>
       </c>
       <c r="G48" t="n">
-        <v>540</v>
-      </c>
-      <c r="H48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1633,18 +1487,15 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E49" t="n">
-        <v>3280815</v>
+        <v>56</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>837</v>
       </c>
       <c r="G49" t="n">
-        <v>837</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1661,18 +1512,15 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E50" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>23</v>
+        <v>930</v>
       </c>
       <c r="G50" t="n">
-        <v>930</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1689,18 +1537,15 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>92.59</v>
+        <v>3280815</v>
       </c>
       <c r="E51" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>1307</v>
       </c>
       <c r="G51" t="n">
-        <v>1307</v>
-      </c>
-      <c r="H51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1717,18 +1562,15 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E52" t="n">
-        <v>3280815</v>
+        <v>53</v>
       </c>
       <c r="F52" t="n">
-        <v>53</v>
+        <v>1336</v>
       </c>
       <c r="G52" t="n">
-        <v>1336</v>
-      </c>
-      <c r="H52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1745,18 +1587,15 @@
         <v>65</v>
       </c>
       <c r="D53" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E53" t="n">
-        <v>3280815</v>
+        <v>54</v>
       </c>
       <c r="F53" t="n">
-        <v>54</v>
+        <v>1908</v>
       </c>
       <c r="G53" t="n">
-        <v>1908</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1773,18 +1612,15 @@
         <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E54" t="n">
-        <v>3280815</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
-        <v>32</v>
+        <v>1154</v>
       </c>
       <c r="G54" t="n">
-        <v>1154</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1801,18 +1637,15 @@
         <v>49</v>
       </c>
       <c r="D55" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E55" t="n">
-        <v>3280815</v>
+        <v>35</v>
       </c>
       <c r="F55" t="n">
-        <v>35</v>
+        <v>992</v>
       </c>
       <c r="G55" t="n">
-        <v>992</v>
-      </c>
-      <c r="H55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1662,15 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E56" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F56" t="n">
-        <v>23</v>
+        <v>781</v>
       </c>
       <c r="G56" t="n">
-        <v>781</v>
-      </c>
-      <c r="H56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1857,18 +1687,15 @@
         <v>92</v>
       </c>
       <c r="D57" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E57" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>28</v>
+        <v>1527</v>
       </c>
       <c r="G57" t="n">
-        <v>1527</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1885,18 +1712,15 @@
         <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E58" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>17</v>
+        <v>1663</v>
       </c>
       <c r="G58" t="n">
-        <v>1663</v>
-      </c>
-      <c r="H58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1913,18 +1737,15 @@
         <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E59" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F59" t="n">
-        <v>28</v>
+        <v>1385</v>
       </c>
       <c r="G59" t="n">
-        <v>1385</v>
-      </c>
-      <c r="H59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1941,18 +1762,15 @@
         <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E60" t="n">
-        <v>3280815</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>24</v>
+        <v>605</v>
       </c>
       <c r="G60" t="n">
-        <v>605</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1969,18 +1787,15 @@
         <v>18</v>
       </c>
       <c r="D61" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E61" t="n">
-        <v>3280815</v>
+        <v>46</v>
       </c>
       <c r="F61" t="n">
-        <v>46</v>
+        <v>1145</v>
       </c>
       <c r="G61" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1997,18 +1812,15 @@
         <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E62" t="n">
-        <v>3280815</v>
+        <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="G62" t="n">
-        <v>450</v>
-      </c>
-      <c r="H62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,18 +1837,15 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E63" t="n">
-        <v>3280815</v>
+        <v>56</v>
       </c>
       <c r="F63" t="n">
-        <v>56</v>
+        <v>918</v>
       </c>
       <c r="G63" t="n">
-        <v>918</v>
-      </c>
-      <c r="H63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2053,18 +1862,15 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E64" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>17</v>
+        <v>1196</v>
       </c>
       <c r="G64" t="n">
-        <v>1196</v>
-      </c>
-      <c r="H64" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2081,18 +1887,15 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E65" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>26</v>
+        <v>1695</v>
       </c>
       <c r="G65" t="n">
-        <v>1695</v>
-      </c>
-      <c r="H65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2109,18 +1912,15 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E66" t="n">
-        <v>3280815</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
-        <v>6</v>
+        <v>604</v>
       </c>
       <c r="G66" t="n">
-        <v>604</v>
-      </c>
-      <c r="H66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2137,18 +1937,15 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E67" t="n">
-        <v>3280815</v>
+        <v>99</v>
       </c>
       <c r="F67" t="n">
-        <v>99</v>
+        <v>1198</v>
       </c>
       <c r="G67" t="n">
-        <v>1198</v>
-      </c>
-      <c r="H67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2165,18 +1962,15 @@
         <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>90.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E68" t="n">
-        <v>3280815</v>
+        <v>47</v>
       </c>
       <c r="F68" t="n">
-        <v>47</v>
+        <v>1293</v>
       </c>
       <c r="G68" t="n">
-        <v>1293</v>
-      </c>
-      <c r="H68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2193,18 +1987,15 @@
         <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E69" t="n">
-        <v>3280815</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>1036</v>
       </c>
       <c r="G69" t="n">
-        <v>1036</v>
-      </c>
-      <c r="H69" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2221,18 +2012,15 @@
         <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E70" t="n">
-        <v>3280815</v>
+        <v>54</v>
       </c>
       <c r="F70" t="n">
-        <v>54</v>
+        <v>1133</v>
       </c>
       <c r="G70" t="n">
-        <v>1133</v>
-      </c>
-      <c r="H70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2249,18 +2037,15 @@
         <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>81.48</v>
+        <v>3280815</v>
       </c>
       <c r="E71" t="n">
-        <v>3280815</v>
+        <v>60</v>
       </c>
       <c r="F71" t="n">
-        <v>60</v>
+        <v>929</v>
       </c>
       <c r="G71" t="n">
-        <v>929</v>
-      </c>
-      <c r="H71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2277,18 +2062,15 @@
         <v>37</v>
       </c>
       <c r="D72" t="n">
-        <v>79.63</v>
+        <v>3280815</v>
       </c>
       <c r="E72" t="n">
-        <v>3280815</v>
+        <v>44</v>
       </c>
       <c r="F72" t="n">
-        <v>44</v>
+        <v>1430</v>
       </c>
       <c r="G72" t="n">
-        <v>1430</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2305,18 +2087,15 @@
         <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E73" t="n">
-        <v>3280815</v>
+        <v>64</v>
       </c>
       <c r="F73" t="n">
-        <v>64</v>
+        <v>1339</v>
       </c>
       <c r="G73" t="n">
-        <v>1339</v>
-      </c>
-      <c r="H73" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2333,18 +2112,15 @@
         <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E74" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>1379</v>
       </c>
       <c r="G74" t="n">
-        <v>1379</v>
-      </c>
-      <c r="H74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2361,18 +2137,15 @@
         <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E75" t="n">
-        <v>3280815</v>
+        <v>81</v>
       </c>
       <c r="F75" t="n">
-        <v>81</v>
+        <v>1304</v>
       </c>
       <c r="G75" t="n">
-        <v>1304</v>
-      </c>
-      <c r="H75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2389,18 +2162,15 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E76" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F76" t="n">
-        <v>28</v>
+        <v>1488</v>
       </c>
       <c r="G76" t="n">
-        <v>1488</v>
-      </c>
-      <c r="H76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2417,18 +2187,15 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E77" t="n">
-        <v>3280815</v>
+        <v>58</v>
       </c>
       <c r="F77" t="n">
-        <v>58</v>
+        <v>2668</v>
       </c>
       <c r="G77" t="n">
-        <v>2668</v>
-      </c>
-      <c r="H77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,18 +2212,15 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>76.84999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E78" t="n">
-        <v>3280815</v>
+        <v>35</v>
       </c>
       <c r="F78" t="n">
-        <v>35</v>
+        <v>1636</v>
       </c>
       <c r="G78" t="n">
-        <v>1636</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2473,18 +2237,15 @@
         <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E79" t="n">
-        <v>3280815</v>
+        <v>39</v>
       </c>
       <c r="F79" t="n">
-        <v>39</v>
+        <v>1373</v>
       </c>
       <c r="G79" t="n">
-        <v>1373</v>
-      </c>
-      <c r="H79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2501,18 +2262,15 @@
         <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E80" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F80" t="n">
-        <v>18</v>
+        <v>510</v>
       </c>
       <c r="G80" t="n">
-        <v>510</v>
-      </c>
-      <c r="H80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2287,15 @@
         <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E81" t="n">
-        <v>3280815</v>
+        <v>48</v>
       </c>
       <c r="F81" t="n">
-        <v>48</v>
+        <v>1187</v>
       </c>
       <c r="G81" t="n">
-        <v>1187</v>
-      </c>
-      <c r="H81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2557,18 +2312,15 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E82" t="n">
-        <v>3280815</v>
+        <v>18</v>
       </c>
       <c r="F82" t="n">
-        <v>18</v>
+        <v>838</v>
       </c>
       <c r="G82" t="n">
-        <v>838</v>
-      </c>
-      <c r="H82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2585,18 +2337,15 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E83" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F83" t="n">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="G83" t="n">
-        <v>402</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2613,18 +2362,15 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E84" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F84" t="n">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="G84" t="n">
-        <v>594</v>
-      </c>
-      <c r="H84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2641,18 +2387,15 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E85" t="n">
-        <v>3280815</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
-        <v>23</v>
+        <v>583</v>
       </c>
       <c r="G85" t="n">
-        <v>583</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2669,18 +2412,15 @@
         <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>71.3</v>
+        <v>3280815</v>
       </c>
       <c r="E86" t="n">
-        <v>3280815</v>
+        <v>37</v>
       </c>
       <c r="F86" t="n">
-        <v>37</v>
+        <v>1456</v>
       </c>
       <c r="G86" t="n">
-        <v>1456</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2697,18 +2437,15 @@
         <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E87" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>1029</v>
       </c>
       <c r="G87" t="n">
-        <v>1029</v>
-      </c>
-      <c r="H87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,18 +2462,15 @@
         <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E88" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>1027</v>
       </c>
       <c r="G88" t="n">
-        <v>1027</v>
-      </c>
-      <c r="H88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2753,18 +2487,15 @@
         <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>65.73999999999999</v>
+        <v>3280815</v>
       </c>
       <c r="E89" t="n">
-        <v>3280815</v>
+        <v>31</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>597</v>
       </c>
       <c r="G89" t="n">
-        <v>597</v>
-      </c>
-      <c r="H89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2781,18 +2512,15 @@
         <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E90" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F90" t="n">
-        <v>26</v>
+        <v>680</v>
       </c>
       <c r="G90" t="n">
-        <v>680</v>
-      </c>
-      <c r="H90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +2537,15 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E91" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>822</v>
       </c>
       <c r="G91" t="n">
-        <v>822</v>
-      </c>
-      <c r="H91" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2837,18 +2562,15 @@
         <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E92" t="n">
-        <v>3280815</v>
+        <v>29</v>
       </c>
       <c r="F92" t="n">
-        <v>29</v>
+        <v>1230</v>
       </c>
       <c r="G92" t="n">
-        <v>1230</v>
-      </c>
-      <c r="H92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2865,18 +2587,15 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E93" t="n">
-        <v>3280815</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>12</v>
+        <v>754</v>
       </c>
       <c r="G93" t="n">
-        <v>754</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2893,18 +2612,15 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E94" t="n">
-        <v>3280815</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>17</v>
+        <v>948</v>
       </c>
       <c r="G94" t="n">
-        <v>948</v>
-      </c>
-      <c r="H94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2921,14 +2637,11 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2943,14 +2656,11 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E96" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2965,18 +2675,15 @@
         <v>98</v>
       </c>
       <c r="D97" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E97" t="n">
-        <v>3280815</v>
+        <v>55</v>
       </c>
       <c r="F97" t="n">
-        <v>55</v>
+        <v>2166</v>
       </c>
       <c r="G97" t="n">
-        <v>2166</v>
-      </c>
-      <c r="H97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2993,18 +2700,15 @@
         <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E98" t="n">
-        <v>3280815</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
-        <v>26</v>
+        <v>694</v>
       </c>
       <c r="G98" t="n">
-        <v>694</v>
-      </c>
-      <c r="H98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3021,18 +2725,15 @@
         <v>47</v>
       </c>
       <c r="D99" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E99" t="n">
-        <v>3280815</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>14</v>
+        <v>865</v>
       </c>
       <c r="G99" t="n">
-        <v>865</v>
-      </c>
-      <c r="H99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,18 +2750,15 @@
         <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E100" t="n">
-        <v>3280815</v>
+        <v>37</v>
       </c>
       <c r="F100" t="n">
-        <v>37</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3077,18 +2775,15 @@
         <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>54.63</v>
+        <v>3280815</v>
       </c>
       <c r="E101" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F101" t="n">
-        <v>19</v>
+        <v>792</v>
       </c>
       <c r="G101" t="n">
-        <v>792</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3105,14 +2800,11 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3127,14 +2819,11 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3149,18 +2838,15 @@
         <v>147</v>
       </c>
       <c r="D104" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E104" t="n">
-        <v>3280815</v>
+        <v>43</v>
       </c>
       <c r="F104" t="n">
-        <v>43</v>
+        <v>2323</v>
       </c>
       <c r="G104" t="n">
-        <v>2323</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3177,18 +2863,15 @@
         <v>45</v>
       </c>
       <c r="D105" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E105" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F105" t="n">
-        <v>16</v>
+        <v>815</v>
       </c>
       <c r="G105" t="n">
-        <v>815</v>
-      </c>
-      <c r="H105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3205,18 +2888,15 @@
         <v>56</v>
       </c>
       <c r="D106" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E106" t="n">
-        <v>3280815</v>
+        <v>19</v>
       </c>
       <c r="F106" t="n">
-        <v>19</v>
+        <v>770</v>
       </c>
       <c r="G106" t="n">
-        <v>770</v>
-      </c>
-      <c r="H106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3233,18 +2913,15 @@
         <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E107" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F107" t="n">
-        <v>22</v>
+        <v>1035</v>
       </c>
       <c r="G107" t="n">
-        <v>1035</v>
-      </c>
-      <c r="H107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3261,18 +2938,15 @@
         <v>99</v>
       </c>
       <c r="D108" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E108" t="n">
-        <v>3280815</v>
+        <v>22</v>
       </c>
       <c r="F108" t="n">
-        <v>22</v>
+        <v>916</v>
       </c>
       <c r="G108" t="n">
-        <v>916</v>
-      </c>
-      <c r="H108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,14 +2963,11 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3311,14 +2982,11 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E110" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3333,18 +3001,15 @@
         <v>252</v>
       </c>
       <c r="D111" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E111" t="n">
-        <v>3280815</v>
+        <v>29</v>
       </c>
       <c r="F111" t="n">
-        <v>29</v>
+        <v>2604</v>
       </c>
       <c r="G111" t="n">
-        <v>2604</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3361,18 +3026,15 @@
         <v>63</v>
       </c>
       <c r="D112" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E112" t="n">
-        <v>3280815</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>15</v>
+        <v>1324</v>
       </c>
       <c r="G112" t="n">
-        <v>1324</v>
-      </c>
-      <c r="H112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3051,15 @@
         <v>88</v>
       </c>
       <c r="D113" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E113" t="n">
-        <v>3280815</v>
+        <v>12</v>
       </c>
       <c r="F113" t="n">
-        <v>12</v>
+        <v>1315</v>
       </c>
       <c r="G113" t="n">
-        <v>1315</v>
-      </c>
-      <c r="H113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3417,18 +3076,15 @@
         <v>120</v>
       </c>
       <c r="D114" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E114" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F114" t="n">
-        <v>25</v>
+        <v>1145</v>
       </c>
       <c r="G114" t="n">
-        <v>1145</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3445,18 +3101,15 @@
         <v>139</v>
       </c>
       <c r="D115" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E115" t="n">
-        <v>3280815</v>
+        <v>16</v>
       </c>
       <c r="F115" t="n">
-        <v>16</v>
+        <v>1130</v>
       </c>
       <c r="G115" t="n">
-        <v>1130</v>
-      </c>
-      <c r="H115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3473,14 +3126,11 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E116" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3495,14 +3145,11 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E117" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3517,18 +3164,15 @@
         <v>390</v>
       </c>
       <c r="D118" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E118" t="n">
-        <v>3280815</v>
+        <v>28</v>
       </c>
       <c r="F118" t="n">
-        <v>28</v>
+        <v>3244</v>
       </c>
       <c r="G118" t="n">
-        <v>3244</v>
-      </c>
-      <c r="H118" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3545,18 +3189,15 @@
         <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E119" t="n">
-        <v>3280815</v>
+        <v>36</v>
       </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>1177</v>
       </c>
       <c r="G119" t="n">
-        <v>1177</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3573,18 +3214,15 @@
         <v>153</v>
       </c>
       <c r="D120" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E120" t="n">
-        <v>3280815</v>
+        <v>30</v>
       </c>
       <c r="F120" t="n">
-        <v>30</v>
+        <v>1157</v>
       </c>
       <c r="G120" t="n">
-        <v>1157</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3601,18 +3239,15 @@
         <v>182</v>
       </c>
       <c r="D121" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E121" t="n">
-        <v>3280815</v>
+        <v>93</v>
       </c>
       <c r="F121" t="n">
-        <v>93</v>
+        <v>1759</v>
       </c>
       <c r="G121" t="n">
-        <v>1759</v>
-      </c>
-      <c r="H121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3629,18 +3264,15 @@
         <v>174</v>
       </c>
       <c r="D122" t="n">
-        <v>51.85</v>
+        <v>3280815</v>
       </c>
       <c r="E122" t="n">
-        <v>3280815</v>
+        <v>25</v>
       </c>
       <c r="F122" t="n">
-        <v>25</v>
+        <v>1851</v>
       </c>
       <c r="G122" t="n">
-        <v>1851</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3657,14 +3289,11 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E123" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3679,14 +3308,11 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E124" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3701,18 +3327,15 @@
         <v>496</v>
       </c>
       <c r="D125" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E125" t="n">
-        <v>3280815</v>
+        <v>48</v>
       </c>
       <c r="F125" t="n">
-        <v>48</v>
+        <v>3650</v>
       </c>
       <c r="G125" t="n">
-        <v>3650</v>
-      </c>
-      <c r="H125" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3729,18 +3352,15 @@
         <v>163</v>
       </c>
       <c r="D126" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E126" t="n">
-        <v>3280815</v>
+        <v>95</v>
       </c>
       <c r="F126" t="n">
-        <v>95</v>
+        <v>1329</v>
       </c>
       <c r="G126" t="n">
-        <v>1329</v>
-      </c>
-      <c r="H126" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3757,18 +3377,15 @@
         <v>248</v>
       </c>
       <c r="D127" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E127" t="n">
-        <v>3280815</v>
+        <v>76</v>
       </c>
       <c r="F127" t="n">
-        <v>76</v>
+        <v>1628</v>
       </c>
       <c r="G127" t="n">
-        <v>1628</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3785,18 +3402,15 @@
         <v>217</v>
       </c>
       <c r="D128" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E128" t="n">
-        <v>3280815</v>
+        <v>46</v>
       </c>
       <c r="F128" t="n">
-        <v>46</v>
+        <v>1871</v>
       </c>
       <c r="G128" t="n">
-        <v>1871</v>
-      </c>
-      <c r="H128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3813,18 +3427,15 @@
         <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E129" t="n">
-        <v>3280815</v>
+        <v>222</v>
       </c>
       <c r="F129" t="n">
-        <v>222</v>
+        <v>1796</v>
       </c>
       <c r="G129" t="n">
-        <v>1796</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3841,14 +3452,11 @@
         <v>317</v>
       </c>
       <c r="D130" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E130" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3863,14 +3471,11 @@
         <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E131" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3885,18 +3490,15 @@
         <v>104</v>
       </c>
       <c r="D132" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E132" t="n">
-        <v>3280815</v>
+        <v>142</v>
       </c>
       <c r="F132" t="n">
-        <v>142</v>
+        <v>3526</v>
       </c>
       <c r="G132" t="n">
-        <v>3526</v>
-      </c>
-      <c r="H132" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3913,14 +3515,11 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E133" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3935,18 +3534,15 @@
         <v>430</v>
       </c>
       <c r="D134" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E134" t="n">
-        <v>3280815</v>
+        <v>156</v>
       </c>
       <c r="F134" t="n">
-        <v>156</v>
+        <v>2808</v>
       </c>
       <c r="G134" t="n">
-        <v>2808</v>
-      </c>
-      <c r="H134" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3963,14 +3559,11 @@
         <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E135" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3985,18 +3578,15 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E136" t="n">
-        <v>3280815</v>
+        <v>277</v>
       </c>
       <c r="F136" t="n">
-        <v>277</v>
+        <v>3558</v>
       </c>
       <c r="G136" t="n">
-        <v>3558</v>
-      </c>
-      <c r="H136" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4013,14 +3603,11 @@
         <v>253</v>
       </c>
       <c r="D137" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E137" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4035,14 +3622,11 @@
         <v>179</v>
       </c>
       <c r="D138" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4057,14 +3641,11 @@
         <v>139</v>
       </c>
       <c r="D139" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E139" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4079,18 +3660,15 @@
         <v>308</v>
       </c>
       <c r="D140" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E140" t="n">
-        <v>3280815</v>
+        <v>390</v>
       </c>
       <c r="F140" t="n">
-        <v>390</v>
+        <v>6142</v>
       </c>
       <c r="G140" t="n">
-        <v>6142</v>
-      </c>
-      <c r="H140" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4107,18 +3685,15 @@
         <v>328</v>
       </c>
       <c r="D141" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E141" t="n">
-        <v>3280815</v>
+        <v>157</v>
       </c>
       <c r="F141" t="n">
-        <v>157</v>
+        <v>1474</v>
       </c>
       <c r="G141" t="n">
-        <v>1474</v>
-      </c>
-      <c r="H141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4135,18 +3710,15 @@
         <v>347</v>
       </c>
       <c r="D142" t="n">
-        <v>56.48</v>
+        <v>3280815</v>
       </c>
       <c r="E142" t="n">
-        <v>3280815</v>
+        <v>208</v>
       </c>
       <c r="F142" t="n">
-        <v>208</v>
+        <v>1784</v>
       </c>
       <c r="G142" t="n">
-        <v>1784</v>
-      </c>
-      <c r="H142" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4163,18 +3735,15 @@
         <v>305</v>
       </c>
       <c r="D143" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E143" t="n">
-        <v>3280815</v>
+        <v>188</v>
       </c>
       <c r="F143" t="n">
-        <v>188</v>
+        <v>1631</v>
       </c>
       <c r="G143" t="n">
-        <v>1631</v>
-      </c>
-      <c r="H143" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4191,14 +3760,11 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4213,14 +3779,11 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E145" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4235,18 +3798,15 @@
         <v>731</v>
       </c>
       <c r="D146" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E146" t="n">
-        <v>3280815</v>
+        <v>375</v>
       </c>
       <c r="F146" t="n">
-        <v>375</v>
+        <v>3713</v>
       </c>
       <c r="G146" t="n">
-        <v>3713</v>
-      </c>
-      <c r="H146" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4263,18 +3823,15 @@
         <v>268</v>
       </c>
       <c r="D147" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E147" t="n">
-        <v>3280815</v>
+        <v>290</v>
       </c>
       <c r="F147" t="n">
-        <v>290</v>
+        <v>1518</v>
       </c>
       <c r="G147" t="n">
-        <v>1518</v>
-      </c>
-      <c r="H147" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4291,18 +3848,15 @@
         <v>361</v>
       </c>
       <c r="D148" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E148" t="n">
-        <v>3280815</v>
+        <v>221</v>
       </c>
       <c r="F148" t="n">
-        <v>221</v>
+        <v>1596</v>
       </c>
       <c r="G148" t="n">
-        <v>1596</v>
-      </c>
-      <c r="H148" t="n">
         <v>19</v>
       </c>
     </row>
@@ -4319,18 +3873,15 @@
         <v>317</v>
       </c>
       <c r="D149" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E149" t="n">
-        <v>3280815</v>
+        <v>145</v>
       </c>
       <c r="F149" t="n">
-        <v>145</v>
+        <v>1844</v>
       </c>
       <c r="G149" t="n">
-        <v>1844</v>
-      </c>
-      <c r="H149" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4347,18 +3898,15 @@
         <v>432</v>
       </c>
       <c r="D150" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E150" t="n">
-        <v>3280815</v>
+        <v>373</v>
       </c>
       <c r="F150" t="n">
-        <v>373</v>
+        <v>1739</v>
       </c>
       <c r="G150" t="n">
-        <v>1739</v>
-      </c>
-      <c r="H150" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4375,14 +3923,11 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E151" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4397,14 +3942,11 @@
         <v>420</v>
       </c>
       <c r="D152" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E152" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4419,18 +3961,15 @@
         <v>166</v>
       </c>
       <c r="D153" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E153" t="n">
-        <v>3280815</v>
+        <v>400</v>
       </c>
       <c r="F153" t="n">
-        <v>400</v>
+        <v>3061</v>
       </c>
       <c r="G153" t="n">
-        <v>3061</v>
-      </c>
-      <c r="H153" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4447,18 +3986,15 @@
         <v>394</v>
       </c>
       <c r="D154" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E154" t="n">
-        <v>3280815</v>
+        <v>233</v>
       </c>
       <c r="F154" t="n">
-        <v>233</v>
+        <v>1569</v>
       </c>
       <c r="G154" t="n">
-        <v>1569</v>
-      </c>
-      <c r="H154" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4475,18 +4011,15 @@
         <v>282</v>
       </c>
       <c r="D155" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E155" t="n">
-        <v>3280815</v>
+        <v>247</v>
       </c>
       <c r="F155" t="n">
-        <v>247</v>
+        <v>1586</v>
       </c>
       <c r="G155" t="n">
-        <v>1586</v>
-      </c>
-      <c r="H155" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4503,18 +4036,15 @@
         <v>258</v>
       </c>
       <c r="D156" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E156" t="n">
-        <v>3280815</v>
+        <v>203</v>
       </c>
       <c r="F156" t="n">
-        <v>203</v>
+        <v>1464</v>
       </c>
       <c r="G156" t="n">
-        <v>1464</v>
-      </c>
-      <c r="H156" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4531,18 +4061,15 @@
         <v>291</v>
       </c>
       <c r="D157" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E157" t="n">
-        <v>3280815</v>
+        <v>331</v>
       </c>
       <c r="F157" t="n">
-        <v>331</v>
+        <v>1067</v>
       </c>
       <c r="G157" t="n">
-        <v>1067</v>
-      </c>
-      <c r="H157" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4559,14 +4086,11 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E158" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4581,14 +4105,11 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E159" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4603,18 +4124,15 @@
         <v>811</v>
       </c>
       <c r="D160" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E160" t="n">
-        <v>3280815</v>
+        <v>786</v>
       </c>
       <c r="F160" t="n">
-        <v>786</v>
+        <v>4256</v>
       </c>
       <c r="G160" t="n">
-        <v>4256</v>
-      </c>
-      <c r="H160" t="n">
         <v>31</v>
       </c>
     </row>
@@ -4631,18 +4149,15 @@
         <v>210</v>
       </c>
       <c r="D161" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E161" t="n">
-        <v>3280815</v>
+        <v>252</v>
       </c>
       <c r="F161" t="n">
-        <v>252</v>
+        <v>2130</v>
       </c>
       <c r="G161" t="n">
-        <v>2130</v>
-      </c>
-      <c r="H161" t="n">
         <v>22</v>
       </c>
     </row>
@@ -4659,18 +4174,15 @@
         <v>253</v>
       </c>
       <c r="D162" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E162" t="n">
-        <v>3280815</v>
+        <v>416</v>
       </c>
       <c r="F162" t="n">
-        <v>416</v>
+        <v>1571</v>
       </c>
       <c r="G162" t="n">
-        <v>1571</v>
-      </c>
-      <c r="H162" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4687,18 +4199,15 @@
         <v>223</v>
       </c>
       <c r="D163" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E163" t="n">
-        <v>3280815</v>
+        <v>329</v>
       </c>
       <c r="F163" t="n">
-        <v>329</v>
+        <v>1539</v>
       </c>
       <c r="G163" t="n">
-        <v>1539</v>
-      </c>
-      <c r="H163" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4715,18 +4224,15 @@
         <v>351</v>
       </c>
       <c r="D164" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E164" t="n">
-        <v>3280815</v>
+        <v>188</v>
       </c>
       <c r="F164" t="n">
-        <v>188</v>
+        <v>2027</v>
       </c>
       <c r="G164" t="n">
-        <v>2027</v>
-      </c>
-      <c r="H164" t="n">
         <v>11</v>
       </c>
     </row>
@@ -4743,14 +4249,11 @@
         <v>266</v>
       </c>
       <c r="D165" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E165" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4765,14 +4268,11 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4787,18 +4287,15 @@
         <v>310</v>
       </c>
       <c r="D167" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E167" t="n">
-        <v>3280815</v>
+        <v>512</v>
       </c>
       <c r="F167" t="n">
-        <v>512</v>
+        <v>3534</v>
       </c>
       <c r="G167" t="n">
-        <v>3534</v>
-      </c>
-      <c r="H167" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4815,18 +4312,15 @@
         <v>240</v>
       </c>
       <c r="D168" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E168" t="n">
-        <v>3280815</v>
+        <v>423</v>
       </c>
       <c r="F168" t="n">
-        <v>423</v>
+        <v>1734</v>
       </c>
       <c r="G168" t="n">
-        <v>1734</v>
-      </c>
-      <c r="H168" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4843,18 +4337,15 @@
         <v>340</v>
       </c>
       <c r="D169" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E169" t="n">
-        <v>3280815</v>
+        <v>432</v>
       </c>
       <c r="F169" t="n">
-        <v>432</v>
+        <v>2092</v>
       </c>
       <c r="G169" t="n">
-        <v>2092</v>
-      </c>
-      <c r="H169" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4871,18 +4362,15 @@
         <v>338</v>
       </c>
       <c r="D170" t="n">
-        <v>59.26</v>
+        <v>3280815</v>
       </c>
       <c r="E170" t="n">
-        <v>3280815</v>
+        <v>170</v>
       </c>
       <c r="F170" t="n">
-        <v>170</v>
+        <v>1888</v>
       </c>
       <c r="G170" t="n">
-        <v>1888</v>
-      </c>
-      <c r="H170" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4899,14 +4387,11 @@
         <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E171" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4921,14 +4406,11 @@
         <v>319</v>
       </c>
       <c r="D172" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4943,14 +4425,11 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4965,18 +4444,15 @@
         <v>314</v>
       </c>
       <c r="D174" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E174" t="n">
-        <v>3280815</v>
+        <v>980</v>
       </c>
       <c r="F174" t="n">
-        <v>980</v>
+        <v>6046</v>
       </c>
       <c r="G174" t="n">
-        <v>6046</v>
-      </c>
-      <c r="H174" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4993,18 +4469,15 @@
         <v>297</v>
       </c>
       <c r="D175" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E175" t="n">
-        <v>3280815</v>
+        <v>220</v>
       </c>
       <c r="F175" t="n">
-        <v>220</v>
+        <v>1971</v>
       </c>
       <c r="G175" t="n">
-        <v>1971</v>
-      </c>
-      <c r="H175" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5021,18 +4494,15 @@
         <v>283</v>
       </c>
       <c r="D176" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E176" t="n">
-        <v>3280815</v>
+        <v>255</v>
       </c>
       <c r="F176" t="n">
-        <v>255</v>
+        <v>1774</v>
       </c>
       <c r="G176" t="n">
-        <v>1774</v>
-      </c>
-      <c r="H176" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5049,18 +4519,15 @@
         <v>311</v>
       </c>
       <c r="D177" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E177" t="n">
-        <v>3280815</v>
+        <v>144</v>
       </c>
       <c r="F177" t="n">
-        <v>144</v>
+        <v>1938</v>
       </c>
       <c r="G177" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H177" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5077,18 +4544,15 @@
         <v>294</v>
       </c>
       <c r="D178" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E178" t="n">
-        <v>3280815</v>
+        <v>253</v>
       </c>
       <c r="F178" t="n">
-        <v>253</v>
+        <v>1900</v>
       </c>
       <c r="G178" t="n">
-        <v>1900</v>
-      </c>
-      <c r="H178" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5105,18 +4569,15 @@
         <v>336</v>
       </c>
       <c r="D179" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E179" t="n">
-        <v>3280815</v>
+        <v>125</v>
       </c>
       <c r="F179" t="n">
-        <v>125</v>
+        <v>1484</v>
       </c>
       <c r="G179" t="n">
-        <v>1484</v>
-      </c>
-      <c r="H179" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5133,18 +4594,15 @@
         <v>243</v>
       </c>
       <c r="D180" t="n">
-        <v>53.7</v>
+        <v>3280815</v>
       </c>
       <c r="E180" t="n">
-        <v>3280815</v>
+        <v>110</v>
       </c>
       <c r="F180" t="n">
-        <v>110</v>
+        <v>1151</v>
       </c>
       <c r="G180" t="n">
-        <v>1151</v>
-      </c>
-      <c r="H180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5161,18 +4619,15 @@
         <v>171</v>
       </c>
       <c r="D181" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E181" t="n">
-        <v>3280815</v>
+        <v>127</v>
       </c>
       <c r="F181" t="n">
-        <v>127</v>
+        <v>1407</v>
       </c>
       <c r="G181" t="n">
-        <v>1407</v>
-      </c>
-      <c r="H181" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5189,18 +4644,15 @@
         <v>270</v>
       </c>
       <c r="D182" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E182" t="n">
-        <v>3280815</v>
+        <v>340</v>
       </c>
       <c r="F182" t="n">
-        <v>340</v>
+        <v>2201</v>
       </c>
       <c r="G182" t="n">
-        <v>2201</v>
-      </c>
-      <c r="H182" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5217,18 +4669,15 @@
         <v>283</v>
       </c>
       <c r="D183" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E183" t="n">
-        <v>3280815</v>
+        <v>191</v>
       </c>
       <c r="F183" t="n">
-        <v>191</v>
+        <v>2038</v>
       </c>
       <c r="G183" t="n">
-        <v>2038</v>
-      </c>
-      <c r="H183" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5245,18 +4694,15 @@
         <v>287</v>
       </c>
       <c r="D184" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E184" t="n">
-        <v>3280815</v>
+        <v>494</v>
       </c>
       <c r="F184" t="n">
-        <v>494</v>
+        <v>1785</v>
       </c>
       <c r="G184" t="n">
-        <v>1785</v>
-      </c>
-      <c r="H184" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5273,18 +4719,15 @@
         <v>338</v>
       </c>
       <c r="D185" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E185" t="n">
-        <v>3280815</v>
+        <v>356</v>
       </c>
       <c r="F185" t="n">
-        <v>356</v>
+        <v>2284</v>
       </c>
       <c r="G185" t="n">
-        <v>2284</v>
-      </c>
-      <c r="H185" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5301,18 +4744,15 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
-        <v>46.3</v>
+        <v>3280815</v>
       </c>
       <c r="E186" t="n">
-        <v>3280815</v>
+        <v>160</v>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>1518</v>
       </c>
       <c r="G186" t="n">
-        <v>1518</v>
-      </c>
-      <c r="H186" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5329,14 +4769,11 @@
         <v>121</v>
       </c>
       <c r="D187" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5351,18 +4788,15 @@
         <v>100</v>
       </c>
       <c r="D188" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E188" t="n">
-        <v>3280815</v>
+        <v>194</v>
       </c>
       <c r="F188" t="n">
-        <v>194</v>
+        <v>2153</v>
       </c>
       <c r="G188" t="n">
-        <v>2153</v>
-      </c>
-      <c r="H188" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5379,18 +4813,15 @@
         <v>301</v>
       </c>
       <c r="D189" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E189" t="n">
-        <v>3280815</v>
+        <v>342</v>
       </c>
       <c r="F189" t="n">
-        <v>342</v>
+        <v>2014</v>
       </c>
       <c r="G189" t="n">
-        <v>2014</v>
-      </c>
-      <c r="H189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5407,18 +4838,15 @@
         <v>297</v>
       </c>
       <c r="D190" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E190" t="n">
-        <v>3280815</v>
+        <v>36</v>
       </c>
       <c r="F190" t="n">
-        <v>36</v>
+        <v>615</v>
       </c>
       <c r="G190" t="n">
-        <v>615</v>
-      </c>
-      <c r="H190" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5435,18 +4863,15 @@
         <v>286</v>
       </c>
       <c r="D191" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E191" t="n">
-        <v>3280815</v>
+        <v>65</v>
       </c>
       <c r="F191" t="n">
-        <v>65</v>
+        <v>521</v>
       </c>
       <c r="G191" t="n">
-        <v>521</v>
-      </c>
-      <c r="H191" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5463,18 +4888,15 @@
         <v>290</v>
       </c>
       <c r="D192" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E192" t="n">
-        <v>3280815</v>
+        <v>399</v>
       </c>
       <c r="F192" t="n">
-        <v>399</v>
+        <v>582</v>
       </c>
       <c r="G192" t="n">
-        <v>582</v>
-      </c>
-      <c r="H192" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5491,14 +4913,11 @@
         <v>304</v>
       </c>
       <c r="D193" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5513,14 +4932,11 @@
         <v>327</v>
       </c>
       <c r="D194" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5535,18 +4951,15 @@
         <v>170</v>
       </c>
       <c r="D195" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E195" t="n">
-        <v>3280815</v>
+        <v>494</v>
       </c>
       <c r="F195" t="n">
-        <v>494</v>
+        <v>9086</v>
       </c>
       <c r="G195" t="n">
-        <v>9086</v>
-      </c>
-      <c r="H195" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5563,18 +4976,15 @@
         <v>294</v>
       </c>
       <c r="D196" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E196" t="n">
-        <v>3280815</v>
+        <v>535</v>
       </c>
       <c r="F196" t="n">
-        <v>535</v>
+        <v>2217</v>
       </c>
       <c r="G196" t="n">
-        <v>2217</v>
-      </c>
-      <c r="H196" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5591,18 +5001,15 @@
         <v>282</v>
       </c>
       <c r="D197" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E197" t="n">
-        <v>3280815</v>
+        <v>289</v>
       </c>
       <c r="F197" t="n">
-        <v>289</v>
+        <v>2150</v>
       </c>
       <c r="G197" t="n">
-        <v>2150</v>
-      </c>
-      <c r="H197" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5619,18 +5026,15 @@
         <v>394</v>
       </c>
       <c r="D198" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E198" t="n">
-        <v>3280815</v>
+        <v>229</v>
       </c>
       <c r="F198" t="n">
-        <v>229</v>
+        <v>2349</v>
       </c>
       <c r="G198" t="n">
-        <v>2349</v>
-      </c>
-      <c r="H198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5647,18 +5051,15 @@
         <v>292</v>
       </c>
       <c r="D199" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E199" t="n">
-        <v>3280815</v>
+        <v>146</v>
       </c>
       <c r="F199" t="n">
-        <v>146</v>
+        <v>2233</v>
       </c>
       <c r="G199" t="n">
-        <v>2233</v>
-      </c>
-      <c r="H199" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5675,14 +5076,11 @@
         <v>320</v>
       </c>
       <c r="D200" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5697,14 +5095,11 @@
         <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5719,18 +5114,15 @@
         <v>93</v>
       </c>
       <c r="D202" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E202" t="n">
-        <v>3280815</v>
+        <v>744</v>
       </c>
       <c r="F202" t="n">
-        <v>744</v>
+        <v>4291</v>
       </c>
       <c r="G202" t="n">
-        <v>4291</v>
-      </c>
-      <c r="H202" t="n">
         <v>18</v>
       </c>
     </row>
@@ -5747,18 +5139,15 @@
         <v>216</v>
       </c>
       <c r="D203" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E203" t="n">
-        <v>3280815</v>
+        <v>250</v>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>2115</v>
       </c>
       <c r="G203" t="n">
-        <v>2115</v>
-      </c>
-      <c r="H203" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5775,18 +5164,15 @@
         <v>344</v>
       </c>
       <c r="D204" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E204" t="n">
-        <v>3280815</v>
+        <v>275</v>
       </c>
       <c r="F204" t="n">
-        <v>275</v>
+        <v>2258</v>
       </c>
       <c r="G204" t="n">
-        <v>2258</v>
-      </c>
-      <c r="H204" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5803,18 +5189,15 @@
         <v>235</v>
       </c>
       <c r="D205" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E205" t="n">
-        <v>3280815</v>
+        <v>508</v>
       </c>
       <c r="F205" t="n">
-        <v>508</v>
+        <v>2060</v>
       </c>
       <c r="G205" t="n">
-        <v>2060</v>
-      </c>
-      <c r="H205" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5831,18 +5214,15 @@
         <v>248</v>
       </c>
       <c r="D206" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E206" t="n">
-        <v>3280815</v>
+        <v>365</v>
       </c>
       <c r="F206" t="n">
-        <v>365</v>
+        <v>1971</v>
       </c>
       <c r="G206" t="n">
-        <v>1971</v>
-      </c>
-      <c r="H206" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5859,14 +5239,11 @@
         <v>233</v>
       </c>
       <c r="D207" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5881,14 +5258,11 @@
         <v>123</v>
       </c>
       <c r="D208" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5903,18 +5277,15 @@
         <v>81</v>
       </c>
       <c r="D209" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E209" t="n">
-        <v>3280815</v>
+        <v>498</v>
       </c>
       <c r="F209" t="n">
-        <v>498</v>
+        <v>3827</v>
       </c>
       <c r="G209" t="n">
-        <v>3827</v>
-      </c>
-      <c r="H209" t="n">
         <v>21</v>
       </c>
     </row>
@@ -5931,18 +5302,15 @@
         <v>225</v>
       </c>
       <c r="D210" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E210" t="n">
-        <v>3280815</v>
+        <v>317</v>
       </c>
       <c r="F210" t="n">
-        <v>317</v>
+        <v>2349</v>
       </c>
       <c r="G210" t="n">
-        <v>2349</v>
-      </c>
-      <c r="H210" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5959,18 +5327,15 @@
         <v>243</v>
       </c>
       <c r="D211" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E211" t="n">
-        <v>3280815</v>
+        <v>294</v>
       </c>
       <c r="F211" t="n">
-        <v>294</v>
+        <v>2081</v>
       </c>
       <c r="G211" t="n">
-        <v>2081</v>
-      </c>
-      <c r="H211" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5987,18 +5352,15 @@
         <v>280</v>
       </c>
       <c r="D212" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E212" t="n">
-        <v>3280815</v>
+        <v>331</v>
       </c>
       <c r="F212" t="n">
-        <v>331</v>
+        <v>2181</v>
       </c>
       <c r="G212" t="n">
-        <v>2181</v>
-      </c>
-      <c r="H212" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6015,18 +5377,15 @@
         <v>226</v>
       </c>
       <c r="D213" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E213" t="n">
-        <v>3280815</v>
+        <v>161</v>
       </c>
       <c r="F213" t="n">
-        <v>161</v>
+        <v>1800</v>
       </c>
       <c r="G213" t="n">
-        <v>1800</v>
-      </c>
-      <c r="H213" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6043,14 +5402,11 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6065,14 +5421,11 @@
         <v>379</v>
       </c>
       <c r="D215" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6087,18 +5440,15 @@
         <v>95</v>
       </c>
       <c r="D216" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E216" t="n">
-        <v>3280815</v>
+        <v>924</v>
       </c>
       <c r="F216" t="n">
-        <v>924</v>
+        <v>3764</v>
       </c>
       <c r="G216" t="n">
-        <v>3764</v>
-      </c>
-      <c r="H216" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6115,18 +5465,15 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E217" t="n">
-        <v>3280815</v>
+        <v>242</v>
       </c>
       <c r="F217" t="n">
-        <v>242</v>
+        <v>2185</v>
       </c>
       <c r="G217" t="n">
-        <v>2185</v>
-      </c>
-      <c r="H217" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6143,18 +5490,15 @@
         <v>365</v>
       </c>
       <c r="D218" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E218" t="n">
-        <v>3280815</v>
+        <v>340</v>
       </c>
       <c r="F218" t="n">
-        <v>340</v>
+        <v>2104</v>
       </c>
       <c r="G218" t="n">
-        <v>2104</v>
-      </c>
-      <c r="H218" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6171,18 +5515,15 @@
         <v>453</v>
       </c>
       <c r="D219" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E219" t="n">
-        <v>3280815</v>
+        <v>325</v>
       </c>
       <c r="F219" t="n">
-        <v>325</v>
+        <v>2281</v>
       </c>
       <c r="G219" t="n">
-        <v>2281</v>
-      </c>
-      <c r="H219" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6199,18 +5540,15 @@
         <v>389</v>
       </c>
       <c r="D220" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E220" t="n">
-        <v>3280815</v>
+        <v>302</v>
       </c>
       <c r="F220" t="n">
-        <v>302</v>
+        <v>2192</v>
       </c>
       <c r="G220" t="n">
-        <v>2192</v>
-      </c>
-      <c r="H220" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6227,14 +5565,11 @@
         <v>428</v>
       </c>
       <c r="D221" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E221" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6249,14 +5584,11 @@
         <v>302</v>
       </c>
       <c r="D222" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E222" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6271,18 +5603,15 @@
         <v>190</v>
       </c>
       <c r="D223" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E223" t="n">
-        <v>3280815</v>
+        <v>346</v>
       </c>
       <c r="F223" t="n">
-        <v>346</v>
+        <v>4900</v>
       </c>
       <c r="G223" t="n">
-        <v>4900</v>
-      </c>
-      <c r="H223" t="n">
         <v>10</v>
       </c>
     </row>
@@ -6299,18 +5628,15 @@
         <v>336</v>
       </c>
       <c r="D224" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E224" t="n">
-        <v>3280815</v>
+        <v>190</v>
       </c>
       <c r="F224" t="n">
-        <v>190</v>
+        <v>2140</v>
       </c>
       <c r="G224" t="n">
-        <v>2140</v>
-      </c>
-      <c r="H224" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6327,18 +5653,15 @@
         <v>482</v>
       </c>
       <c r="D225" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E225" t="n">
-        <v>3280815</v>
+        <v>297</v>
       </c>
       <c r="F225" t="n">
-        <v>297</v>
+        <v>2511</v>
       </c>
       <c r="G225" t="n">
-        <v>2511</v>
-      </c>
-      <c r="H225" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6355,18 +5678,15 @@
         <v>569</v>
       </c>
       <c r="D226" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E226" t="n">
-        <v>3280815</v>
+        <v>282</v>
       </c>
       <c r="F226" t="n">
-        <v>282</v>
+        <v>2326</v>
       </c>
       <c r="G226" t="n">
-        <v>2326</v>
-      </c>
-      <c r="H226" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6383,18 +5703,15 @@
         <v>621</v>
       </c>
       <c r="D227" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E227" t="n">
-        <v>3280815</v>
+        <v>247</v>
       </c>
       <c r="F227" t="n">
-        <v>247</v>
+        <v>2525</v>
       </c>
       <c r="G227" t="n">
-        <v>2525</v>
-      </c>
-      <c r="H227" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6411,14 +5728,11 @@
         <v>716</v>
       </c>
       <c r="D228" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E228" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6433,14 +5747,11 @@
         <v>551</v>
       </c>
       <c r="D229" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E229" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6455,18 +5766,15 @@
         <v>549</v>
       </c>
       <c r="D230" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E230" t="n">
-        <v>3280815</v>
+        <v>839</v>
       </c>
       <c r="F230" t="n">
-        <v>839</v>
+        <v>5529</v>
       </c>
       <c r="G230" t="n">
-        <v>5529</v>
-      </c>
-      <c r="H230" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6483,18 +5791,15 @@
         <v>728</v>
       </c>
       <c r="D231" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E231" t="n">
-        <v>3280815</v>
+        <v>118</v>
       </c>
       <c r="F231" t="n">
-        <v>118</v>
+        <v>5667</v>
       </c>
       <c r="G231" t="n">
-        <v>5667</v>
-      </c>
-      <c r="H231" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6511,18 +5816,15 @@
         <v>926</v>
       </c>
       <c r="D232" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E232" t="n">
-        <v>3280815</v>
+        <v>219</v>
       </c>
       <c r="F232" t="n">
-        <v>219</v>
+        <v>-56</v>
       </c>
       <c r="G232" t="n">
-        <v>-56</v>
-      </c>
-      <c r="H232" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6539,18 +5841,15 @@
         <v>999</v>
       </c>
       <c r="D233" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E233" t="n">
-        <v>3280815</v>
+        <v>210</v>
       </c>
       <c r="F233" t="n">
-        <v>210</v>
+        <v>3056</v>
       </c>
       <c r="G233" t="n">
-        <v>3056</v>
-      </c>
-      <c r="H233" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6567,18 +5866,15 @@
         <v>1179</v>
       </c>
       <c r="D234" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E234" t="n">
-        <v>3280815</v>
+        <v>271</v>
       </c>
       <c r="F234" t="n">
-        <v>271</v>
+        <v>2966</v>
       </c>
       <c r="G234" t="n">
-        <v>2966</v>
-      </c>
-      <c r="H234" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6595,18 +5891,15 @@
         <v>1265</v>
       </c>
       <c r="D235" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E235" t="n">
-        <v>3280815</v>
+        <v>108</v>
       </c>
       <c r="F235" t="n">
-        <v>108</v>
+        <v>2686</v>
       </c>
       <c r="G235" t="n">
-        <v>2686</v>
-      </c>
-      <c r="H235" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6623,18 +5916,15 @@
         <v>1135</v>
       </c>
       <c r="D236" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E236" t="n">
-        <v>3280815</v>
+        <v>91</v>
       </c>
       <c r="F236" t="n">
-        <v>91</v>
+        <v>2504</v>
       </c>
       <c r="G236" t="n">
-        <v>2504</v>
-      </c>
-      <c r="H236" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6651,18 +5941,15 @@
         <v>703</v>
       </c>
       <c r="D237" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E237" t="n">
-        <v>3280815</v>
+        <v>83</v>
       </c>
       <c r="F237" t="n">
-        <v>83</v>
+        <v>1848</v>
       </c>
       <c r="G237" t="n">
-        <v>1848</v>
-      </c>
-      <c r="H237" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6679,18 +5966,15 @@
         <v>1555</v>
       </c>
       <c r="D238" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E238" t="n">
-        <v>3280815</v>
+        <v>361</v>
       </c>
       <c r="F238" t="n">
-        <v>361</v>
+        <v>3080</v>
       </c>
       <c r="G238" t="n">
-        <v>3080</v>
-      </c>
-      <c r="H238" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6707,18 +5991,15 @@
         <v>1586</v>
       </c>
       <c r="D239" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E239" t="n">
-        <v>3280815</v>
+        <v>184</v>
       </c>
       <c r="F239" t="n">
-        <v>184</v>
+        <v>3717</v>
       </c>
       <c r="G239" t="n">
-        <v>3717</v>
-      </c>
-      <c r="H239" t="n">
         <v>36</v>
       </c>
     </row>
@@ -6735,18 +6016,15 @@
         <v>1902</v>
       </c>
       <c r="D240" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E240" t="n">
-        <v>3280815</v>
+        <v>493</v>
       </c>
       <c r="F240" t="n">
-        <v>493</v>
+        <v>4328</v>
       </c>
       <c r="G240" t="n">
-        <v>4328</v>
-      </c>
-      <c r="H240" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6763,18 +6041,15 @@
         <v>1498</v>
       </c>
       <c r="D241" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E241" t="n">
-        <v>3280815</v>
+        <v>290</v>
       </c>
       <c r="F241" t="n">
-        <v>290</v>
+        <v>3845</v>
       </c>
       <c r="G241" t="n">
-        <v>3845</v>
-      </c>
-      <c r="H241" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6791,18 +6066,15 @@
         <v>1953</v>
       </c>
       <c r="D242" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E242" t="n">
-        <v>3280815</v>
+        <v>213</v>
       </c>
       <c r="F242" t="n">
-        <v>213</v>
+        <v>3956</v>
       </c>
       <c r="G242" t="n">
-        <v>3956</v>
-      </c>
-      <c r="H242" t="n">
         <v>22</v>
       </c>
     </row>
@@ -6819,18 +6091,15 @@
         <v>1415</v>
       </c>
       <c r="D243" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E243" t="n">
-        <v>3280815</v>
+        <v>111</v>
       </c>
       <c r="F243" t="n">
-        <v>111</v>
+        <v>2948</v>
       </c>
       <c r="G243" t="n">
-        <v>2948</v>
-      </c>
-      <c r="H243" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6847,18 +6116,15 @@
         <v>764</v>
       </c>
       <c r="D244" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E244" t="n">
-        <v>3280815</v>
+        <v>373</v>
       </c>
       <c r="F244" t="n">
-        <v>373</v>
+        <v>1618</v>
       </c>
       <c r="G244" t="n">
-        <v>1618</v>
-      </c>
-      <c r="H244" t="n">
         <v>32</v>
       </c>
     </row>
@@ -6875,18 +6141,15 @@
         <v>1553</v>
       </c>
       <c r="D245" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E245" t="n">
-        <v>3280815</v>
+        <v>589</v>
       </c>
       <c r="F245" t="n">
-        <v>589</v>
+        <v>2816</v>
       </c>
       <c r="G245" t="n">
-        <v>2816</v>
-      </c>
-      <c r="H245" t="n">
         <v>37</v>
       </c>
     </row>
@@ -6903,18 +6166,15 @@
         <v>1776</v>
       </c>
       <c r="D246" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E246" t="n">
-        <v>3280815</v>
+        <v>233</v>
       </c>
       <c r="F246" t="n">
-        <v>233</v>
+        <v>4456</v>
       </c>
       <c r="G246" t="n">
-        <v>4456</v>
-      </c>
-      <c r="H246" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6931,18 +6191,15 @@
         <v>1908</v>
       </c>
       <c r="D247" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E247" t="n">
-        <v>3280815</v>
+        <v>300</v>
       </c>
       <c r="F247" t="n">
-        <v>300</v>
+        <v>5171</v>
       </c>
       <c r="G247" t="n">
-        <v>5171</v>
-      </c>
-      <c r="H247" t="n">
         <v>44</v>
       </c>
     </row>
@@ -6959,18 +6216,15 @@
         <v>1921</v>
       </c>
       <c r="D248" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E248" t="n">
-        <v>3280815</v>
+        <v>281</v>
       </c>
       <c r="F248" t="n">
-        <v>281</v>
+        <v>4694</v>
       </c>
       <c r="G248" t="n">
-        <v>4694</v>
-      </c>
-      <c r="H248" t="n">
         <v>55</v>
       </c>
     </row>
@@ -6987,18 +6241,15 @@
         <v>1785</v>
       </c>
       <c r="D249" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E249" t="n">
-        <v>3280815</v>
+        <v>684</v>
       </c>
       <c r="F249" t="n">
-        <v>684</v>
+        <v>4442</v>
       </c>
       <c r="G249" t="n">
-        <v>4442</v>
-      </c>
-      <c r="H249" t="n">
         <v>33</v>
       </c>
     </row>
@@ -7015,18 +6266,15 @@
         <v>1211</v>
       </c>
       <c r="D250" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E250" t="n">
-        <v>3280815</v>
+        <v>285</v>
       </c>
       <c r="F250" t="n">
-        <v>285</v>
+        <v>2797</v>
       </c>
       <c r="G250" t="n">
-        <v>2797</v>
-      </c>
-      <c r="H250" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7043,18 +6291,15 @@
         <v>996</v>
       </c>
       <c r="D251" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E251" t="n">
-        <v>3280815</v>
+        <v>283</v>
       </c>
       <c r="F251" t="n">
-        <v>283</v>
+        <v>2366</v>
       </c>
       <c r="G251" t="n">
-        <v>2366</v>
-      </c>
-      <c r="H251" t="n">
         <v>73</v>
       </c>
     </row>
@@ -7071,18 +6316,15 @@
         <v>1605</v>
       </c>
       <c r="D252" t="n">
-        <v>40.74</v>
+        <v>3280815</v>
       </c>
       <c r="E252" t="n">
-        <v>3280815</v>
+        <v>1039</v>
       </c>
       <c r="F252" t="n">
-        <v>1039</v>
+        <v>5375</v>
       </c>
       <c r="G252" t="n">
-        <v>5375</v>
-      </c>
-      <c r="H252" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7099,18 +6341,15 @@
         <v>1541</v>
       </c>
       <c r="D253" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E253" t="n">
-        <v>3280815</v>
+        <v>508</v>
       </c>
       <c r="F253" t="n">
-        <v>508</v>
+        <v>5579</v>
       </c>
       <c r="G253" t="n">
-        <v>5579</v>
-      </c>
-      <c r="H253" t="n">
         <v>72</v>
       </c>
     </row>
@@ -7127,18 +6366,15 @@
         <v>1728</v>
       </c>
       <c r="D254" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E254" t="n">
-        <v>3280815</v>
+        <v>921</v>
       </c>
       <c r="F254" t="n">
-        <v>921</v>
+        <v>5014</v>
       </c>
       <c r="G254" t="n">
-        <v>5014</v>
-      </c>
-      <c r="H254" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7155,18 +6391,15 @@
         <v>1332</v>
       </c>
       <c r="D255" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E255" t="n">
-        <v>3280815</v>
+        <v>801</v>
       </c>
       <c r="F255" t="n">
-        <v>801</v>
+        <v>3854</v>
       </c>
       <c r="G255" t="n">
-        <v>3854</v>
-      </c>
-      <c r="H255" t="n">
         <v>58</v>
       </c>
     </row>
@@ -7183,18 +6416,15 @@
         <v>1275</v>
       </c>
       <c r="D256" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E256" t="n">
-        <v>3280815</v>
+        <v>870</v>
       </c>
       <c r="F256" t="n">
-        <v>870</v>
+        <v>3773</v>
       </c>
       <c r="G256" t="n">
-        <v>3773</v>
-      </c>
-      <c r="H256" t="n">
         <v>49</v>
       </c>
     </row>
@@ -7211,18 +6441,15 @@
         <v>1056</v>
       </c>
       <c r="D257" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E257" t="n">
-        <v>3280815</v>
+        <v>245</v>
       </c>
       <c r="F257" t="n">
-        <v>245</v>
+        <v>2334</v>
       </c>
       <c r="G257" t="n">
-        <v>2334</v>
-      </c>
-      <c r="H257" t="n">
         <v>41</v>
       </c>
     </row>
@@ -7239,18 +6466,15 @@
         <v>733</v>
       </c>
       <c r="D258" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E258" t="n">
-        <v>3280815</v>
+        <v>867</v>
       </c>
       <c r="F258" t="n">
-        <v>867</v>
+        <v>2390</v>
       </c>
       <c r="G258" t="n">
-        <v>2390</v>
-      </c>
-      <c r="H258" t="n">
         <v>75</v>
       </c>
     </row>
@@ -7267,18 +6491,15 @@
         <v>1255</v>
       </c>
       <c r="D259" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E259" t="n">
-        <v>3280815</v>
+        <v>2187</v>
       </c>
       <c r="F259" t="n">
-        <v>2187</v>
+        <v>3725</v>
       </c>
       <c r="G259" t="n">
-        <v>3725</v>
-      </c>
-      <c r="H259" t="n">
         <v>69</v>
       </c>
     </row>
@@ -7295,18 +6516,15 @@
         <v>1633</v>
       </c>
       <c r="D260" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E260" t="n">
-        <v>3280815</v>
+        <v>1226</v>
       </c>
       <c r="F260" t="n">
-        <v>1226</v>
+        <v>4549</v>
       </c>
       <c r="G260" t="n">
-        <v>4549</v>
-      </c>
-      <c r="H260" t="n">
         <v>47</v>
       </c>
     </row>
@@ -7323,18 +6541,15 @@
         <v>1180</v>
       </c>
       <c r="D261" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E261" t="n">
-        <v>3280815</v>
+        <v>1145</v>
       </c>
       <c r="F261" t="n">
-        <v>1145</v>
+        <v>3614</v>
       </c>
       <c r="G261" t="n">
-        <v>3614</v>
-      </c>
-      <c r="H261" t="n">
         <v>64</v>
       </c>
     </row>
@@ -7351,18 +6566,15 @@
         <v>1237</v>
       </c>
       <c r="D262" t="n">
-        <v>55.56</v>
+        <v>3280815</v>
       </c>
       <c r="E262" t="n">
-        <v>3280815</v>
+        <v>1885</v>
       </c>
       <c r="F262" t="n">
-        <v>1885</v>
+        <v>4139</v>
       </c>
       <c r="G262" t="n">
-        <v>4139</v>
-      </c>
-      <c r="H262" t="n">
         <v>56</v>
       </c>
     </row>
@@ -7379,18 +6591,15 @@
         <v>1315</v>
       </c>
       <c r="D263" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E263" t="n">
-        <v>3280815</v>
+        <v>877</v>
       </c>
       <c r="F263" t="n">
-        <v>877</v>
+        <v>3823</v>
       </c>
       <c r="G263" t="n">
-        <v>3823</v>
-      </c>
-      <c r="H263" t="n">
         <v>40</v>
       </c>
     </row>
@@ -7407,18 +6616,15 @@
         <v>697</v>
       </c>
       <c r="D264" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E264" t="n">
-        <v>3280815</v>
+        <v>623</v>
       </c>
       <c r="F264" t="n">
-        <v>623</v>
+        <v>1969</v>
       </c>
       <c r="G264" t="n">
-        <v>1969</v>
-      </c>
-      <c r="H264" t="n">
         <v>27</v>
       </c>
     </row>
@@ -7435,18 +6641,15 @@
         <v>547</v>
       </c>
       <c r="D265" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E265" t="n">
-        <v>3280815</v>
+        <v>1344</v>
       </c>
       <c r="F265" t="n">
-        <v>1344</v>
+        <v>1449</v>
       </c>
       <c r="G265" t="n">
-        <v>1449</v>
-      </c>
-      <c r="H265" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7463,18 +6666,15 @@
         <v>1186</v>
       </c>
       <c r="D266" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E266" t="n">
-        <v>3280815</v>
+        <v>1765</v>
       </c>
       <c r="F266" t="n">
-        <v>1765</v>
+        <v>3578</v>
       </c>
       <c r="G266" t="n">
-        <v>3578</v>
-      </c>
-      <c r="H266" t="n">
         <v>52</v>
       </c>
     </row>
@@ -7491,18 +6691,15 @@
         <v>1589</v>
       </c>
       <c r="D267" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E267" t="n">
-        <v>3280815</v>
+        <v>685</v>
       </c>
       <c r="F267" t="n">
-        <v>685</v>
+        <v>3929</v>
       </c>
       <c r="G267" t="n">
-        <v>3929</v>
-      </c>
-      <c r="H267" t="n">
         <v>35</v>
       </c>
     </row>
@@ -7519,18 +6716,15 @@
         <v>924</v>
       </c>
       <c r="D268" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E268" t="n">
-        <v>3280815</v>
+        <v>570</v>
       </c>
       <c r="F268" t="n">
-        <v>570</v>
+        <v>2757</v>
       </c>
       <c r="G268" t="n">
-        <v>2757</v>
-      </c>
-      <c r="H268" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7547,18 +6741,15 @@
         <v>1179</v>
       </c>
       <c r="D269" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E269" t="n">
-        <v>3280815</v>
+        <v>1221</v>
       </c>
       <c r="F269" t="n">
-        <v>1221</v>
+        <v>3180</v>
       </c>
       <c r="G269" t="n">
-        <v>3180</v>
-      </c>
-      <c r="H269" t="n">
         <v>62</v>
       </c>
     </row>
@@ -7575,18 +6766,15 @@
         <v>1279</v>
       </c>
       <c r="D270" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E270" t="n">
-        <v>3280815</v>
+        <v>1067</v>
       </c>
       <c r="F270" t="n">
-        <v>1067</v>
+        <v>3252</v>
       </c>
       <c r="G270" t="n">
-        <v>3252</v>
-      </c>
-      <c r="H270" t="n">
         <v>34</v>
       </c>
     </row>
@@ -7603,18 +6791,15 @@
         <v>664</v>
       </c>
       <c r="D271" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E271" t="n">
-        <v>3280815</v>
+        <v>411</v>
       </c>
       <c r="F271" t="n">
-        <v>411</v>
+        <v>1698</v>
       </c>
       <c r="G271" t="n">
-        <v>1698</v>
-      </c>
-      <c r="H271" t="n">
         <v>44</v>
       </c>
     </row>
@@ -7631,18 +6816,15 @@
         <v>527</v>
       </c>
       <c r="D272" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E272" t="n">
-        <v>3280815</v>
+        <v>1290</v>
       </c>
       <c r="F272" t="n">
-        <v>1290</v>
+        <v>1553</v>
       </c>
       <c r="G272" t="n">
-        <v>1553</v>
-      </c>
-      <c r="H272" t="n">
         <v>61</v>
       </c>
     </row>
@@ -7659,18 +6841,15 @@
         <v>1184</v>
       </c>
       <c r="D273" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E273" t="n">
-        <v>3280815</v>
+        <v>955</v>
       </c>
       <c r="F273" t="n">
-        <v>955</v>
+        <v>3428</v>
       </c>
       <c r="G273" t="n">
-        <v>3428</v>
-      </c>
-      <c r="H273" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7687,18 +6866,15 @@
         <v>1293</v>
       </c>
       <c r="D274" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E274" t="n">
-        <v>3280815</v>
+        <v>1243</v>
       </c>
       <c r="F274" t="n">
-        <v>1243</v>
+        <v>3477</v>
       </c>
       <c r="G274" t="n">
-        <v>3477</v>
-      </c>
-      <c r="H274" t="n">
         <v>46</v>
       </c>
     </row>
@@ -7715,18 +6891,15 @@
         <v>1161</v>
       </c>
       <c r="D275" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E275" t="n">
-        <v>3280815</v>
+        <v>1083</v>
       </c>
       <c r="F275" t="n">
-        <v>1083</v>
+        <v>3810</v>
       </c>
       <c r="G275" t="n">
-        <v>3810</v>
-      </c>
-      <c r="H275" t="n">
         <v>39</v>
       </c>
     </row>
@@ -7743,18 +6916,15 @@
         <v>1254</v>
       </c>
       <c r="D276" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E276" t="n">
-        <v>3280815</v>
+        <v>1495</v>
       </c>
       <c r="F276" t="n">
-        <v>1495</v>
+        <v>4158</v>
       </c>
       <c r="G276" t="n">
-        <v>4158</v>
-      </c>
-      <c r="H276" t="n">
         <v>53</v>
       </c>
     </row>
@@ -7771,18 +6941,15 @@
         <v>975</v>
       </c>
       <c r="D277" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E277" t="n">
-        <v>3280815</v>
+        <v>489</v>
       </c>
       <c r="F277" t="n">
-        <v>489</v>
+        <v>2815</v>
       </c>
       <c r="G277" t="n">
-        <v>2815</v>
-      </c>
-      <c r="H277" t="n">
         <v>57</v>
       </c>
     </row>
@@ -7799,18 +6966,15 @@
         <v>739</v>
       </c>
       <c r="D278" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E278" t="n">
-        <v>3280815</v>
+        <v>591</v>
       </c>
       <c r="F278" t="n">
-        <v>591</v>
+        <v>2262</v>
       </c>
       <c r="G278" t="n">
-        <v>2262</v>
-      </c>
-      <c r="H278" t="n">
         <v>30</v>
       </c>
     </row>
@@ -7827,18 +6991,15 @@
         <v>437</v>
       </c>
       <c r="D279" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E279" t="n">
-        <v>3280815</v>
+        <v>863</v>
       </c>
       <c r="F279" t="n">
-        <v>863</v>
+        <v>1754</v>
       </c>
       <c r="G279" t="n">
-        <v>1754</v>
-      </c>
-      <c r="H279" t="n">
         <v>60</v>
       </c>
     </row>
@@ -7855,18 +7016,15 @@
         <v>1077</v>
       </c>
       <c r="D280" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E280" t="n">
-        <v>3280815</v>
+        <v>722</v>
       </c>
       <c r="F280" t="n">
-        <v>722</v>
+        <v>3596</v>
       </c>
       <c r="G280" t="n">
-        <v>3596</v>
-      </c>
-      <c r="H280" t="n">
         <v>69</v>
       </c>
     </row>
@@ -7883,18 +7041,15 @@
         <v>1296</v>
       </c>
       <c r="D281" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E281" t="n">
-        <v>3280815</v>
+        <v>1112</v>
       </c>
       <c r="F281" t="n">
-        <v>1112</v>
+        <v>9431</v>
       </c>
       <c r="G281" t="n">
-        <v>9431</v>
-      </c>
-      <c r="H281" t="n">
         <v>70</v>
       </c>
     </row>
@@ -7911,18 +7066,15 @@
         <v>1286</v>
       </c>
       <c r="D282" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E282" t="n">
-        <v>3280815</v>
+        <v>1270</v>
       </c>
       <c r="F282" t="n">
-        <v>1270</v>
+        <v>3979</v>
       </c>
       <c r="G282" t="n">
-        <v>3979</v>
-      </c>
-      <c r="H282" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7939,18 +7091,15 @@
         <v>940</v>
       </c>
       <c r="D283" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E283" t="n">
-        <v>3280815</v>
+        <v>1141</v>
       </c>
       <c r="F283" t="n">
-        <v>1141</v>
+        <v>3360</v>
       </c>
       <c r="G283" t="n">
-        <v>3360</v>
-      </c>
-      <c r="H283" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7967,18 +7116,15 @@
         <v>763</v>
       </c>
       <c r="D284" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E284" t="n">
-        <v>3280815</v>
+        <v>1556</v>
       </c>
       <c r="F284" t="n">
-        <v>1556</v>
+        <v>2941</v>
       </c>
       <c r="G284" t="n">
-        <v>2941</v>
-      </c>
-      <c r="H284" t="n">
         <v>48</v>
       </c>
     </row>
@@ -7995,18 +7141,15 @@
         <v>811</v>
       </c>
       <c r="D285" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E285" t="n">
-        <v>3280815</v>
+        <v>469</v>
       </c>
       <c r="F285" t="n">
-        <v>469</v>
+        <v>2022</v>
       </c>
       <c r="G285" t="n">
-        <v>2022</v>
-      </c>
-      <c r="H285" t="n">
         <v>38</v>
       </c>
     </row>
@@ -8023,18 +7166,15 @@
         <v>344</v>
       </c>
       <c r="D286" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E286" t="n">
-        <v>3280815</v>
+        <v>728</v>
       </c>
       <c r="F286" t="n">
-        <v>728</v>
+        <v>1286</v>
       </c>
       <c r="G286" t="n">
-        <v>1286</v>
-      </c>
-      <c r="H286" t="n">
         <v>55</v>
       </c>
     </row>
@@ -8051,18 +7191,15 @@
         <v>869</v>
       </c>
       <c r="D287" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E287" t="n">
-        <v>3280815</v>
+        <v>1163</v>
       </c>
       <c r="F287" t="n">
-        <v>1163</v>
+        <v>3319</v>
       </c>
       <c r="G287" t="n">
-        <v>3319</v>
-      </c>
-      <c r="H287" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8079,18 +7216,15 @@
         <v>902</v>
       </c>
       <c r="D288" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E288" t="n">
-        <v>3280815</v>
+        <v>596</v>
       </c>
       <c r="F288" t="n">
-        <v>596</v>
+        <v>3555</v>
       </c>
       <c r="G288" t="n">
-        <v>3555</v>
-      </c>
-      <c r="H288" t="n">
         <v>54</v>
       </c>
     </row>
@@ -8107,18 +7241,15 @@
         <v>855</v>
       </c>
       <c r="D289" t="n">
-        <v>48.15</v>
+        <v>3280815</v>
       </c>
       <c r="E289" t="n">
-        <v>3280815</v>
+        <v>1250</v>
       </c>
       <c r="F289" t="n">
-        <v>1250</v>
+        <v>3624</v>
       </c>
       <c r="G289" t="n">
-        <v>3624</v>
-      </c>
-      <c r="H289" t="n">
         <v>38</v>
       </c>
     </row>
@@ -8135,18 +7266,15 @@
         <v>794</v>
       </c>
       <c r="D290" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E290" t="n">
-        <v>3280815</v>
+        <v>754</v>
       </c>
       <c r="F290" t="n">
-        <v>754</v>
+        <v>3289</v>
       </c>
       <c r="G290" t="n">
-        <v>3289</v>
-      </c>
-      <c r="H290" t="n">
         <v>34</v>
       </c>
     </row>
@@ -8163,18 +7291,15 @@
         <v>643</v>
       </c>
       <c r="D291" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E291" t="n">
-        <v>3280815</v>
+        <v>371</v>
       </c>
       <c r="F291" t="n">
-        <v>371</v>
+        <v>2840</v>
       </c>
       <c r="G291" t="n">
-        <v>2840</v>
-      </c>
-      <c r="H291" t="n">
         <v>42</v>
       </c>
     </row>
@@ -8191,18 +7316,15 @@
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E292" t="n">
-        <v>3280815</v>
+        <v>274</v>
       </c>
       <c r="F292" t="n">
-        <v>274</v>
+        <v>2375</v>
       </c>
       <c r="G292" t="n">
-        <v>2375</v>
-      </c>
-      <c r="H292" t="n">
         <v>28</v>
       </c>
     </row>
@@ -8219,18 +7341,15 @@
         <v>698</v>
       </c>
       <c r="D293" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E293" t="n">
-        <v>3280815</v>
+        <v>654</v>
       </c>
       <c r="F293" t="n">
-        <v>654</v>
+        <v>1843</v>
       </c>
       <c r="G293" t="n">
-        <v>1843</v>
-      </c>
-      <c r="H293" t="n">
         <v>53</v>
       </c>
     </row>
@@ -8247,18 +7366,15 @@
         <v>764</v>
       </c>
       <c r="D294" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E294" t="n">
-        <v>3280815</v>
+        <v>1049</v>
       </c>
       <c r="F294" t="n">
-        <v>1049</v>
+        <v>3339</v>
       </c>
       <c r="G294" t="n">
-        <v>3339</v>
-      </c>
-      <c r="H294" t="n">
         <v>86</v>
       </c>
     </row>
@@ -8275,18 +7391,15 @@
         <v>584</v>
       </c>
       <c r="D295" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E295" t="n">
-        <v>3280815</v>
+        <v>552</v>
       </c>
       <c r="F295" t="n">
-        <v>552</v>
+        <v>3054</v>
       </c>
       <c r="G295" t="n">
-        <v>3054</v>
-      </c>
-      <c r="H295" t="n">
         <v>46</v>
       </c>
     </row>
@@ -8303,18 +7416,15 @@
         <v>728</v>
       </c>
       <c r="D296" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E296" t="n">
-        <v>3280815</v>
+        <v>747</v>
       </c>
       <c r="F296" t="n">
-        <v>747</v>
+        <v>3261</v>
       </c>
       <c r="G296" t="n">
-        <v>3261</v>
-      </c>
-      <c r="H296" t="n">
         <v>40</v>
       </c>
     </row>
@@ -8331,18 +7441,15 @@
         <v>593</v>
       </c>
       <c r="D297" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E297" t="n">
-        <v>3280815</v>
+        <v>771</v>
       </c>
       <c r="F297" t="n">
-        <v>771</v>
+        <v>2958</v>
       </c>
       <c r="G297" t="n">
-        <v>2958</v>
-      </c>
-      <c r="H297" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8359,18 +7466,15 @@
         <v>439</v>
       </c>
       <c r="D298" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E298" t="n">
-        <v>3280815</v>
+        <v>457</v>
       </c>
       <c r="F298" t="n">
-        <v>457</v>
+        <v>2180</v>
       </c>
       <c r="G298" t="n">
-        <v>2180</v>
-      </c>
-      <c r="H298" t="n">
         <v>22</v>
       </c>
     </row>
@@ -8387,18 +7491,15 @@
         <v>361</v>
       </c>
       <c r="D299" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E299" t="n">
-        <v>3280815</v>
+        <v>593</v>
       </c>
       <c r="F299" t="n">
-        <v>593</v>
+        <v>1843</v>
       </c>
       <c r="G299" t="n">
-        <v>1843</v>
-      </c>
-      <c r="H299" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8415,18 +7516,15 @@
         <v>220</v>
       </c>
       <c r="D300" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E300" t="n">
-        <v>3280815</v>
+        <v>404</v>
       </c>
       <c r="F300" t="n">
-        <v>404</v>
+        <v>1775</v>
       </c>
       <c r="G300" t="n">
-        <v>1775</v>
-      </c>
-      <c r="H300" t="n">
         <v>23</v>
       </c>
     </row>
@@ -8443,18 +7541,15 @@
         <v>543</v>
       </c>
       <c r="D301" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E301" t="n">
-        <v>3280815</v>
+        <v>681</v>
       </c>
       <c r="F301" t="n">
-        <v>681</v>
+        <v>3386</v>
       </c>
       <c r="G301" t="n">
-        <v>3386</v>
-      </c>
-      <c r="H301" t="n">
         <v>48</v>
       </c>
     </row>
@@ -8471,18 +7566,15 @@
         <v>531</v>
       </c>
       <c r="D302" t="n">
-        <v>42.59</v>
+        <v>3280815</v>
       </c>
       <c r="E302" t="n">
-        <v>3280815</v>
+        <v>423</v>
       </c>
       <c r="F302" t="n">
-        <v>423</v>
+        <v>2873</v>
       </c>
       <c r="G302" t="n">
-        <v>2873</v>
-      </c>
-      <c r="H302" t="n">
         <v>26</v>
       </c>
     </row>
@@ -8499,14 +7591,11 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E303" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8521,14 +7610,11 @@
         <v>1158</v>
       </c>
       <c r="D304" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E304" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8543,14 +7629,11 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E305" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8565,14 +7648,11 @@
         <v>502</v>
       </c>
       <c r="D306" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E306" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8587,14 +7667,11 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E307" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8609,14 +7686,11 @@
         <v>747</v>
       </c>
       <c r="D308" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E308" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8631,14 +7705,30 @@
         <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E309" t="n">
-        <v>3280815</v>
-      </c>
+        <v>3280815</v>
+      </c>
+      <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>07.01.2021</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>113392</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,9 +1020,7 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7729,6 +7727,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>08.01.2021</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>114920</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G311"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7747,6 +7747,44 @@
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>09.01.2021</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>115379</v>
+      </c>
+      <c r="C312" t="n">
+        <v>459</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10.01.2021</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C313" t="n">
+        <v>254</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,9 +1018,15 @@
       <c r="D30" t="n">
         <v>3280815</v>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>-82191</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-540449</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4343</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7686,9 +7692,15 @@
       <c r="D308" t="n">
         <v>3280815</v>
       </c>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr"/>
+      <c r="E308" t="n">
+        <v>1574</v>
+      </c>
+      <c r="F308" t="n">
+        <v>5053</v>
+      </c>
+      <c r="G308" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7743,9 +7755,15 @@
       <c r="D311" t="n">
         <v>3280815</v>
       </c>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
+      <c r="E311" t="n">
+        <v>1403</v>
+      </c>
+      <c r="F311" t="n">
+        <v>10532</v>
+      </c>
+      <c r="G311" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7762,9 +7780,15 @@
       <c r="D312" t="n">
         <v>3280815</v>
       </c>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr"/>
+      <c r="E312" t="n">
+        <v>457</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3409</v>
+      </c>
+      <c r="G312" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7781,9 +7805,40 @@
       <c r="D313" t="n">
         <v>3280815</v>
       </c>
-      <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr"/>
+      <c r="E313" t="n">
+        <v>299</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G313" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>11.01.2021</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E314" t="n">
+        <v>567</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2557</v>
+      </c>
+      <c r="G314" t="n">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-82191</v>
+        <v>-82822</v>
       </c>
       <c r="F30" t="n">
-        <v>-540449</v>
+        <v>-544835</v>
       </c>
       <c r="G30" t="n">
-        <v>-4343</v>
+        <v>-4358</v>
       </c>
     </row>
     <row r="31">
@@ -7839,6 +7839,69 @@
       <c r="G314" t="n">
         <v>28</v>
       </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>12.01.2021</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>116200</v>
+      </c>
+      <c r="C315" t="n">
+        <v>567</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E315" t="n">
+        <v>631</v>
+      </c>
+      <c r="F315" t="n">
+        <v>4386</v>
+      </c>
+      <c r="G315" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>13.01.2021</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>116668</v>
+      </c>
+      <c r="C316" t="n">
+        <v>468</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>14.01.2021</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C317" t="n">
+        <v>343</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7903,6 +7903,25 @@
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>15.01.2021</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-82822</v>
+        <v>-89075</v>
       </c>
       <c r="F30" t="n">
-        <v>-544835</v>
+        <v>-567231</v>
       </c>
       <c r="G30" t="n">
-        <v>-4358</v>
+        <v>-4506</v>
       </c>
     </row>
     <row r="31">
@@ -7880,9 +7880,15 @@
       <c r="D316" t="n">
         <v>3280815</v>
       </c>
-      <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
+      <c r="E316" t="n">
+        <v>840</v>
+      </c>
+      <c r="F316" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G316" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7899,9 +7905,15 @@
       <c r="D317" t="n">
         <v>3280815</v>
       </c>
-      <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>988</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3021</v>
+      </c>
+      <c r="G317" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7918,9 +7930,159 @@
       <c r="D318" t="n">
         <v>3280815</v>
       </c>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
+      <c r="E318" t="n">
+        <v>584</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2554</v>
+      </c>
+      <c r="G318" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>16.01.2021</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E319" t="n">
+        <v>346</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3575</v>
+      </c>
+      <c r="G319" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>17.01.2021</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E320" t="n">
+        <v>303</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1711</v>
+      </c>
+      <c r="G320" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>18.01.2021</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>118083</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E321" t="n">
+        <v>622</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1849</v>
+      </c>
+      <c r="G321" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>19.01.2021</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>118383</v>
+      </c>
+      <c r="C322" t="n">
+        <v>300</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1566</v>
+      </c>
+      <c r="F322" t="n">
+        <v>3045</v>
+      </c>
+      <c r="G322" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20.01.2021</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>118717</v>
+      </c>
+      <c r="C323" t="n">
+        <v>334</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1004</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2471</v>
+      </c>
+      <c r="G323" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>21.01.2021</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>119206</v>
+      </c>
+      <c r="C324" t="n">
+        <v>489</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G324"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-89075</v>
+        <v>-89882</v>
       </c>
       <c r="F30" t="n">
-        <v>-567231</v>
+        <v>-569844</v>
       </c>
       <c r="G30" t="n">
-        <v>-4506</v>
+        <v>-4521</v>
       </c>
     </row>
     <row r="31">
@@ -8080,9 +8080,53 @@
       <c r="D324" t="n">
         <v>3280815</v>
       </c>
-      <c r="E324" t="inlineStr"/>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
+      <c r="E324" t="n">
+        <v>807</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2613</v>
+      </c>
+      <c r="G324" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>22.01.2021</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C325" t="n">
+        <v>214</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>23.01.2021</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-89882</v>
+        <v>-92605</v>
       </c>
       <c r="F30" t="n">
-        <v>-569844</v>
+        <v>-577375</v>
       </c>
       <c r="G30" t="n">
-        <v>-4521</v>
+        <v>-4578</v>
       </c>
     </row>
     <row r="31">
@@ -8105,9 +8105,15 @@
       <c r="D325" t="n">
         <v>3280815</v>
       </c>
-      <c r="E325" t="inlineStr"/>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="E325" t="n">
+        <v>809</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2169</v>
+      </c>
+      <c r="G325" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8127,6 +8133,50 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>24.01.2021</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>25.01.2021</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>120143</v>
+      </c>
+      <c r="C328" t="n">
+        <v>723</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F328" t="n">
+        <v>5362</v>
+      </c>
+      <c r="G328" t="n">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-92605</v>
+        <v>-93657</v>
       </c>
       <c r="F30" t="n">
-        <v>-577375</v>
+        <v>-583348</v>
       </c>
       <c r="G30" t="n">
-        <v>-4578</v>
+        <v>-4628</v>
       </c>
     </row>
     <row r="31">
@@ -8176,6 +8176,56 @@
       </c>
       <c r="G328" t="n">
         <v>38</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>26.01.2021</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>120532</v>
+      </c>
+      <c r="C329" t="n">
+        <v>389</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E329" t="n">
+        <v>727</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2935</v>
+      </c>
+      <c r="G329" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>27.01.2021</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>120864</v>
+      </c>
+      <c r="C330" t="n">
+        <v>332</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E330" t="n">
+        <v>325</v>
+      </c>
+      <c r="F330" t="n">
+        <v>3038</v>
+      </c>
+      <c r="G330" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-93657</v>
+        <v>-94072</v>
       </c>
       <c r="F30" t="n">
-        <v>-583348</v>
+        <v>-585890</v>
       </c>
       <c r="G30" t="n">
-        <v>-4628</v>
+        <v>-4644</v>
       </c>
     </row>
     <row r="31">
@@ -8227,6 +8227,50 @@
       <c r="G330" t="n">
         <v>22</v>
       </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>28.01.2021</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>121194</v>
+      </c>
+      <c r="C331" t="n">
+        <v>330</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E331" t="n">
+        <v>415</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2542</v>
+      </c>
+      <c r="G331" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>29.01.2021</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C332" t="n">
+        <v>303</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-94072</v>
+        <v>-95569</v>
       </c>
       <c r="F30" t="n">
-        <v>-585890</v>
+        <v>-596353</v>
       </c>
       <c r="G30" t="n">
-        <v>-4644</v>
+        <v>-4722</v>
       </c>
     </row>
     <row r="31">
@@ -8268,9 +8268,122 @@
       <c r="D332" t="n">
         <v>3280815</v>
       </c>
-      <c r="E332" t="inlineStr"/>
-      <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>532</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2348</v>
+      </c>
+      <c r="G332" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>30.01.2021</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>31.01.2021</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01.02.2021</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>122199</v>
+      </c>
+      <c r="C335" t="n">
+        <v>702</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E335" t="n">
+        <v>576</v>
+      </c>
+      <c r="F335" t="n">
+        <v>5452</v>
+      </c>
+      <c r="G335" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>02.02.2021</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>122461</v>
+      </c>
+      <c r="C336" t="n">
+        <v>262</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E336" t="n">
+        <v>389</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2663</v>
+      </c>
+      <c r="G336" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>03.02.2021</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C337" t="n">
+        <v>367</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataSet/cleanData/missingData.xlsx
+++ b/dataSet/cleanData/missingData.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,13 +1019,13 @@
         <v>3280815</v>
       </c>
       <c r="E30" t="n">
-        <v>-95569</v>
+        <v>-96096</v>
       </c>
       <c r="F30" t="n">
-        <v>-596353</v>
+        <v>-599538</v>
       </c>
       <c r="G30" t="n">
-        <v>-4722</v>
+        <v>-4730</v>
       </c>
     </row>
     <row r="31">
@@ -8381,9 +8381,72 @@
       <c r="D337" t="n">
         <v>3280815</v>
       </c>
-      <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
+      <c r="E337" t="n">
+        <v>527</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3185</v>
+      </c>
+      <c r="G337" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>04.02.2021</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>05.02.2021</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C339" t="n">
+        <v>606</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06.02.2021</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
